--- a/indicadores/Fichas tecnicas/Base Normativa Completa.xlsx
+++ b/indicadores/Fichas tecnicas/Base Normativa Completa.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Dropbox\Trabajo\DESCA\DESCA-app\indicadores\Fichas tecnicas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\DESCA-app\indicadores\Fichas tecnicas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CED732C-C2CC-4385-B65B-599E7037AD64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13140" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Internacional" sheetId="1" r:id="rId1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2086" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2086" uniqueCount="682">
   <si>
     <t>Derecho</t>
   </si>
@@ -620,21 +619,6 @@
     <t>Esta Ley promulgada el 24 de agosto de 1877 declara tempranamente para Uruguay que la educación primaria es gratuita y obligatoria, por lo tanto, el Estado queda obligado a organizar y brindar ese servicio.</t>
   </si>
   <si>
-    <t>En 1945, cuando se firma la Carta de las Naciones Unidas, las naciones se comprometen -entre otras cosas- a cooperar en la solución de problemas internacionales de carácter económico, social, cultural o humanitario, y en el desarrollo y estímulo del respeto a los derechos humanos y a las libertades fundamentales de todos, sin hacer distinción por motivos de raza, sexo, idioma o religión.  En ese sentido, una de las acciones impulsadas por quienes estaban trabajando por la creación de la Organización de las Naciones Unidas era la de crear una organización mundial dedicada al tema salud. 
-La Constitución de la OMS aprobada en 1946 en la Conferencia Sanitaria Internacional, y firmada en ese mismo momento por 61 Estados, entra en vigor el 7 de abril de 1948. De esa manera se da inicio a las actividades oficiales de la OMS, quedando fijado el día 7 de abril como Día Mundial de la Salud a partir de ese momento.
-En este documento la salud se define como un derecho fundamental a gozar sin ningún tipo de distinción "de raza, religión, ideología política o condición económica o social" de un "estado de completo bienestar físico, mental y social, y no solamente la ausencia de afecciones o enfermedades".
-Entre los principios de la OMS consagrados en su Constitución se encuentra la cooperación internacional , en el entendido que: la salud de todos los pueblos es una condición fundamental para lograr la paz y la seguridad y depende de la más amplia cooperación de las personas y de los Estados; los resultados alcanzados por cada Estado en el fomento y protección de la salud son valiosos para todos; la desigualdad de los diversos países en lo relativo al fomento de la salud y el control de las enfermedades, sobre todo las transmisibles, constituye un peligro común y la extensión a todos los pueblos de los beneficios de los conocimientos médicos, psicológicos y afines es esencial para alcanzar el más alto grado de salud.
-Además, se hace especial énfasis en la importancia del desarrollo saludable durante la infancia, de una opinión pública bien informada ya que una cooperación activa por parte del público son de importancia capital para el mejoramiento de la salud del pueblo y en la responsabilidad de los Estados en la salud de sus pueblos para lo que deben adoptarse medidas sanitarias y sociales que persigan este objetivo.</t>
-  </si>
-  <si>
-    <t>La Convención Internacional sobre la eliminación de todas las formas de discriminación racial aprobada en 1965, consagra el respeto universal y efectivo de los derechos humanos y de las libertades fundamentales de todas las personas, sin distinción por motivos de raza, sexo, idioma o religión.
-Si bien esa idea estaba presente en la Declaración Universal, las situaciones de discriminación persistentes hicieron necesario un compromiso internacional de los Estado para la protección legal contra toda discriminación y contra toda incitación a la discriminación.
-El texto de la Convención define discriminación racial y condena las prácticas que la promueven, así como la propaganda y los grupos que fomentan estas prácticas, definiendo que se trata de conductas que son punibles. Los Estados se comprometen a abstenerse de esas prácticas, condenarlas en sus territorios nacionales y promover acciones que fomenten la protección e integración de grupos o personas que hayan sido postergadas por discriminación racial. 
-La Convención, además de una enumeración exhaustiva de derechos humanos- hace especial énfasis en la eliminación de las prácticas de segregación racial y condena el apartheid, la propaganda y todas las organizaciones que se inspiren en ideas basadas en la superioridad de una raza o de un grupo de personas de un determinado color u origen étnico, o que promuevan el odio racial. 
-El Comité para la Eliminación de todas las formas de Discriminación Racial (CERD) se encarga de dar seguimiento al cumplimiento de la Convención en cada uno de los países que la han ratificado.
-En el artículo 5 se establecen una serie de derechos que los Estados se comprometen a garantizar a todas las personas sin discriminación, entre ellos se encuentra el derecho a la salud pública y la asistencia médica.</t>
-  </si>
-  <si>
     <t xml:space="preserve">La Convención Americana de Derechos Humanos es una de las bases del sistema interamericano de promoción y protección de los derechos humanos en el ámbito de la Organización de Estados Americanos (OEA) Fue adoptado en la Conferencia Especializada Interamericana de Derechos Humanos, el 22 de noviembre de 1969 en la ciudad de San José en Costa Rica, por lo que también se lo conoce como Pacto de San José de Costa Rica.
 La Convención recoge derechos civiles y políticos, y económicos sociales y culturales, así como deberes de los Estados, de las personas y establece mecanismos de protección, adjudicándole a la Comisión Interamericana de Derechos Humanos (CIDH) funciones de observancia de las disposiciones de la Convención y crea la Corte Interamericana de Derechos Humanos (Corte IDH) como órgano jurisdiccional con funciones contenciosas y consultivas.
 Al igual que la Declaración Universal, a partir de ella y en base a su fundamento, se desarrollaron una serie de protocolos y convenciones específicas que fueron definiendo el alcance de cada uno de los derechos enumerados. En el artículo 26 de la Convención se introduce un párrafo muy escueto que contiene el punto de partida del desarrollo posterior de los derechos económicos, sociales y culturales entre los que se encuentra el derecho a la salud.
@@ -1313,9 +1297,6 @@
     <t xml:space="preserve">La Ley 19.353 tiene por objeto la promoción del desarrollo de la autonomía de las personas en situación de dependencia, su atención y asistencia, mediante la creación del Sistema Nacional Integrado de Cuidados, como conjunto de acciones y medidas orientadas al diseño e implementación de políticas públicas que constituyan un modelo solidario y corresponsable entre familias, Estado, comunidad y mercado.
 Es importante tener en cuenta los decretos reglamentarios 427/016 de 27/12/2016 que establece los alcances y objetivos del Sistema, 428/016 de 27/12/2016 que crea el Sistema de Teleasistencia domiciliaria, y 117/016 de 25/04/2016 que crea el Servicio de asistentes personales para cuidados de larga duración para personas en situación de dependencia severa.
 </t>
-  </si>
-  <si>
-    <t>La Ley 19.695 promulgada el 29 de octubre de 2008, incorporó modificaciones al sistema de previsión social militar. Esta norma es la que contiene las disposiciones del régimen vigente en materia de seguridad social para el personal militar, el cual es administrado por el Servicio de Retiros y Pensiones de las Fuerzas Armadas, dependiente del Ministerio de Defensa Nacional.</t>
   </si>
   <si>
     <t>El Banco Hipotecario del Uruguay (BHU) es una institución financiera pública especializada en crédito hipotecario. Fue creado el 24 de marzo de 1892 como institución privada y nacionalizado en 1912, aprobándose su carta orgánica mediante la Ley 5.343.
@@ -2337,15 +2318,9 @@
     <t>[Enlace](https://www.impo.com.uy/bases/leyes/18213-2007)</t>
   </si>
   <si>
-    <t>[Enlace](https://www.impo.com.uy/bases/leyes/18250-2010)</t>
-  </si>
-  <si>
     <t>[Enlace](https://www.impo.com.uy/bases/leyes/18437-2008)</t>
   </si>
   <si>
-    <t>[Enlace](https://www.impo.com.uy/bases/leyes/18437-2010)</t>
-  </si>
-  <si>
     <t>[Enlace](https://www.impo.com.uy/bases/leyes/19889-2020)</t>
   </si>
   <si>
@@ -2512,9 +2487,6 @@
   </si>
   <si>
     <t>[Enlace](http://www.impo.com.uy/bases/leyes-originales/19676-2018)</t>
-  </si>
-  <si>
-    <t>[Enlace](https://parlamento.gub.uy/documentosyleyes/leyes/ley/19837)</t>
   </si>
   <si>
     <t>[Enlace](http://www.impo.com.uy/bases/leyes/16048-1989)</t>
@@ -2768,11 +2740,32 @@
   <si>
     <t>19846 </t>
   </si>
+  <si>
+    <t>[Enlace](https://www.impo.com.uy/bases/leyes/18651-2010)</t>
+  </si>
+  <si>
+    <t>[Enlace](https://www.impo.com.uy/bases/leyes/18250-2008)</t>
+  </si>
+  <si>
+    <t>La Ley 19.695 promulgada el 29 de octubre de 2018, incorporó modificaciones al sistema de previsión social militar. Esta norma es la que contiene las disposiciones del régimen vigente en materia de seguridad social para el personal militar, el cual es administrado por el Servicio de Retiros y Pensiones de las Fuerzas Armadas, dependiente del Ministerio de Defensa Nacional.</t>
+  </si>
+  <si>
+    <t>En 1945, cuando se firma la Carta de las Naciones Unidas, las naciones se comprometen -entre otras cosas- a cooperar en la solución de problemas internacionales de carácter económico, social, cultural o humanitario, y en el desarrollo y estímulo del respeto a los derechos humanos y a las libertades fundamentales de todos, sin hacer distinción por motivos de raza, sexo, idioma o religión.  En ese sentido, una de las acciones impulsadas por quienes estaban trabajando por la creación de la Organización de las Naciones Unidas era la de crear una organización mundial dedicada al tema salud. 
+La Constitución de la OMS aprobada en 1946 en la Conferencia Sanitaria Internacional, y firmada en ese mismo momento por 61 Estados, entra en vigor el 7 de abril de 1948. De esa manera se da inicio a las actividades oficiales de la OMS, quedando fijado el día 7 de abril como Día Mundial de la Salud a partir de ese momento. En este documento la salud se define como un derecho fundamental a gozar sin ningún tipo de distinción "de raza, religión, ideología política o condición económica o social" de un "estado de completo bienestar físico, mental y social, y no solamente la ausencia de afecciones o enfermedades".
+Entre los principios de la OMS consagrados en su Constitución se encuentra la cooperación internacional , en el entendido que: la salud de todos los pueblos es una condición fundamental para lograr la paz y la seguridad y depende de la más amplia cooperación de las personas y de los Estados; los resultados alcanzados por cada Estado en el fomento y protección de la salud son valiosos para todos; la desigualdad de los diversos países en lo relativo al fomento de la salud y el control de las enfermedades, sobre todo las transmisibles, constituye un peligro común y la extensión a todos los pueblos de los beneficios de los conocimientos médicos, psicológicos y afines es esencial para alcanzar el más alto grado de salud. Además, se hace especial énfasis en la importancia del desarrollo saludable durante la infancia, de una opinión pública bien informada ya que una cooperación activa por parte del público son de importancia capital para el mejoramiento de la salud del pueblo y en la responsabilidad de los Estados en la salud de sus pueblos para lo que deben adoptarse medidas sanitarias y sociales que persigan este objetivo.</t>
+  </si>
+  <si>
+    <t>La Convención Internacional sobre la eliminación de todas las formas de discriminación racial aprobada en 1965, consagra el respeto universal y efectivo de los derechos humanos y de las libertades fundamentales de todas las personas, sin distinción por motivos de raza, sexo, idioma o religión. Si bien esa idea estaba presente en la Declaración Universal, las situaciones de discriminación persistentes hicieron necesario un compromiso internacional de los Estado para la protección legal contra toda discriminación y contra toda incitación a la discriminación.
+El texto de la Convención define discriminación racial y condena las prácticas que la promueven, así como la propaganda y los grupos que fomentan estas prácticas, definiendo que se trata de conductas que son punibles. Los Estados se comprometen a abstenerse de esas prácticas, condenarlas en sus territorios nacionales y promover acciones que fomenten la protección e integración de grupos o personas que hayan sido postergadas por discriminación racial. 
+La Convención, además de una enumeración exhaustiva de derechos humanos- hace especial énfasis en la eliminación de las prácticas de segregación racial y condena el apartheid, la propaganda y todas las organizaciones que se inspiren en ideas basadas en la superioridad de una raza o de un grupo de personas de un determinado color u origen étnico, o que promuevan el odio racial. 
+El Comité para la Eliminación de todas las formas de Discriminación Racial (CERD) se encarga de dar seguimiento al cumplimiento de la Convención en cada uno de los países que la han ratificado.
+En el artículo 5 se establecen una serie de derechos que los Estados se comprometen a garantizar a todas las personas sin discriminación, entre ellos se encuentra el derecho a la salud pública y la asistencia médica.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3414,46 +3407,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:O132"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="53.33203125" style="72" customWidth="1"/>
-    <col min="7" max="7" width="34.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="255.6640625" style="48" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="116.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.44140625" style="3"/>
-    <col min="16" max="16384" width="11.44140625" style="10"/>
+    <col min="1" max="1" width="4.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15" style="3" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="53.28515625" style="72" customWidth="1"/>
+    <col min="7" max="7" width="34.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="255.7109375" style="48" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="116.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" style="3"/>
+    <col min="16" max="16384" width="11.42578125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="47" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B1" s="62" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -3465,27 +3458,27 @@
         <v>3</v>
       </c>
       <c r="H1" s="63" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="N1" s="10"/>
       <c r="O1" s="10"/>
     </row>
-    <row r="2" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -3517,16 +3510,16 @@
         <v>1945</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -3561,15 +3554,15 @@
         <v>10</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -3607,12 +3600,12 @@
         <v>141</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
     </row>
-    <row r="5" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -3632,7 +3625,7 @@
         <v>14</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H5" s="4">
         <v>1948</v>
@@ -3644,16 +3637,16 @@
         <v>1955</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -3685,18 +3678,18 @@
         <v>1969</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -3728,18 +3721,18 @@
         <v>2003</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="L7" s="10" t="s">
         <v>133</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -3777,12 +3770,12 @@
         <v>134</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -3814,18 +3807,18 @@
         <v>1969</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="L9" s="10" t="s">
         <v>132</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
     </row>
-    <row r="10" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -3857,16 +3850,16 @@
         <v>1969</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -3898,18 +3891,18 @@
         <v>1985</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="L11" s="10" t="s">
         <v>142</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -3941,18 +3934,18 @@
         <v>1981</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="L12" s="10" t="s">
         <v>135</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="N12" s="10"/>
       <c r="O12" s="10"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -3984,18 +3977,18 @@
         <v>1984</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="L13" s="10" t="s">
         <v>137</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -4027,18 +4020,18 @@
         <v>1994</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="L14" s="10" t="s">
         <v>143</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="N14" s="10"/>
       <c r="O14" s="10"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -4070,18 +4063,18 @@
         <v>1990</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="L15" s="10" t="s">
         <v>136</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -4113,18 +4106,18 @@
         <v>1999</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="L16" s="10" t="s">
         <v>138</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -4162,12 +4155,12 @@
         <v>147</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -4199,18 +4192,18 @@
         <v>1995</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="L18" s="10" t="s">
         <v>148</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="N18" s="10"/>
       <c r="O18" s="10"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -4248,12 +4241,12 @@
         <v>146</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -4285,18 +4278,18 @@
         <v>2008</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="L20" s="10" t="s">
         <v>140</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -4334,12 +4327,12 @@
         <v>139</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -4371,18 +4364,18 @@
         <v>2017</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="L22" s="10" t="s">
         <v>144</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="N22" s="10"/>
       <c r="O22" s="10"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -4420,12 +4413,12 @@
         <v>145</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="N23" s="10"/>
       <c r="O23" s="10"/>
     </row>
-    <row r="24" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -4457,16 +4450,16 @@
         <v>1945</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -4498,18 +4491,18 @@
         <v>1949</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>160</v>
+        <v>680</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="N25" s="10"/>
       <c r="O25" s="10"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -4544,15 +4537,15 @@
         <v>10</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="N26" s="10"/>
       <c r="O26" s="10"/>
     </row>
-    <row r="27" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -4587,13 +4580,13 @@
         <v>10</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -4613,7 +4606,7 @@
         <v>14</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H28" s="4">
         <v>1948</v>
@@ -4625,16 +4618,16 @@
         <v>1955</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -4669,15 +4662,15 @@
         <v>19</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>161</v>
+        <v>681</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="N29" s="10"/>
       <c r="O29" s="10"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -4709,18 +4702,18 @@
         <v>1969</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="N30" s="10"/>
       <c r="O30" s="10"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -4752,18 +4745,18 @@
         <v>1985</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="L31" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="N31" s="10"/>
       <c r="O31" s="10"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -4795,18 +4788,18 @@
         <v>1981</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="N32" s="10"/>
       <c r="O32" s="10"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -4838,18 +4831,18 @@
         <v>1994</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="L33" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="N33" s="10"/>
       <c r="O33" s="10"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -4881,18 +4874,18 @@
         <v>1990</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="N34" s="10"/>
       <c r="O34" s="10"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -4924,18 +4917,18 @@
         <v>1999</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="L35" s="10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="N35" s="10"/>
       <c r="O35" s="10"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -4970,15 +4963,15 @@
         <v>52</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="N36" s="10"/>
       <c r="O36" s="10"/>
     </row>
-    <row r="37" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -5010,16 +5003,16 @@
         <v>1995</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -5054,15 +5047,15 @@
         <v>31</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="N38" s="10"/>
       <c r="O38" s="10"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -5094,18 +5087,18 @@
         <v>2008</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="L39" s="10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="N39" s="10"/>
       <c r="O39" s="10"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -5140,15 +5133,15 @@
         <v>36</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="N40" s="10"/>
       <c r="O40" s="10"/>
     </row>
-    <row r="41" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -5180,16 +5173,16 @@
         <v>2017</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -5224,15 +5217,15 @@
         <v>40</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="N42" s="10"/>
       <c r="O42" s="10"/>
     </row>
-    <row r="43" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -5264,16 +5257,16 @@
         <v>1945</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -5308,15 +5301,15 @@
         <v>10</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="N44" s="10"/>
       <c r="O44" s="10"/>
     </row>
-    <row r="45" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -5351,13 +5344,13 @@
         <v>10</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -5377,7 +5370,7 @@
         <v>14</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H46" s="4">
         <v>1948</v>
@@ -5389,16 +5382,16 @@
         <v>1955</v>
       </c>
       <c r="K46" s="8" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -5430,16 +5423,16 @@
         <v>1969</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -5471,18 +5464,18 @@
         <v>2009</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="L48" s="10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="N48" s="10"/>
       <c r="O48" s="10"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -5517,15 +5510,15 @@
         <v>19</v>
       </c>
       <c r="L49" s="10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="N49" s="10"/>
       <c r="O49" s="10"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -5557,18 +5550,18 @@
         <v>1969</v>
       </c>
       <c r="K50" s="8" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="L50" s="10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="N50" s="10"/>
       <c r="O50" s="10"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -5600,18 +5593,18 @@
         <v>1973</v>
       </c>
       <c r="K51" s="8" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="L51" s="10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="N51" s="10"/>
       <c r="O51" s="10"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -5643,18 +5636,18 @@
         <v>1981</v>
       </c>
       <c r="K52" s="8" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="L52" s="10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="N52" s="10"/>
       <c r="O52" s="10"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -5686,18 +5679,18 @@
         <v>1994</v>
       </c>
       <c r="K53" s="8" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="L53" s="10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="N53" s="10"/>
       <c r="O53" s="10"/>
     </row>
-    <row r="54" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -5729,16 +5722,16 @@
         <v>1990</v>
       </c>
       <c r="K54" s="8" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -5770,18 +5763,18 @@
         <v>1999</v>
       </c>
       <c r="K55" s="8" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="L55" s="10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="N55" s="10"/>
       <c r="O55" s="10"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -5813,18 +5806,18 @@
         <v>2008</v>
       </c>
       <c r="K56" s="8" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="L56" s="10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="N56" s="10"/>
       <c r="O56" s="10"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -5859,15 +5852,15 @@
         <v>36</v>
       </c>
       <c r="L57" s="10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="N57" s="10"/>
       <c r="O57" s="10"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -5899,18 +5892,18 @@
         <v>2012</v>
       </c>
       <c r="K58" s="8" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="L58" s="10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="N58" s="10"/>
       <c r="O58" s="10"/>
     </row>
-    <row r="59" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -5942,16 +5935,16 @@
         <v>2017</v>
       </c>
       <c r="K59" s="8" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -5986,13 +5979,13 @@
         <v>40</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -6024,16 +6017,16 @@
         <v>1945</v>
       </c>
       <c r="K61" s="8" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -6068,15 +6061,15 @@
         <v>10</v>
       </c>
       <c r="L62" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="N62" s="10"/>
       <c r="O62" s="10"/>
     </row>
-    <row r="63" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -6111,13 +6104,13 @@
         <v>10</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -6149,16 +6142,16 @@
         <v>1955</v>
       </c>
       <c r="K64" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -6193,15 +6186,15 @@
         <v>19</v>
       </c>
       <c r="L65" s="10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="N65" s="10"/>
       <c r="O65" s="10"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -6233,18 +6226,18 @@
         <v>1969</v>
       </c>
       <c r="K66" s="6" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="L66" s="10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="N66" s="10"/>
       <c r="O66" s="10"/>
     </row>
-    <row r="67" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -6276,16 +6269,16 @@
         <v>1969</v>
       </c>
       <c r="K67" s="6" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -6317,16 +6310,16 @@
         <v>1985</v>
       </c>
       <c r="K68" s="6" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -6358,18 +6351,18 @@
         <v>1981</v>
       </c>
       <c r="K69" s="6" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="L69" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="N69" s="10"/>
       <c r="O69" s="10"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -6401,18 +6394,18 @@
         <v>1990</v>
       </c>
       <c r="K70" s="6" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="L70" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="N70" s="10"/>
       <c r="O70" s="10"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -6444,18 +6437,18 @@
         <v>1999</v>
       </c>
       <c r="K71" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="L71" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="N71" s="10"/>
       <c r="O71" s="10"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -6490,15 +6483,15 @@
         <v>31</v>
       </c>
       <c r="L72" s="10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="N72" s="10"/>
       <c r="O72" s="10"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -6530,18 +6523,18 @@
         <v>2008</v>
       </c>
       <c r="K73" s="6" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="L73" s="10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="N73" s="10"/>
       <c r="O73" s="10"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -6576,15 +6569,15 @@
         <v>36</v>
       </c>
       <c r="L74" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="N74" s="10"/>
       <c r="O74" s="10"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -6616,18 +6609,18 @@
         <v>2017</v>
       </c>
       <c r="K75" s="6" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="L75" s="10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="N75" s="10"/>
       <c r="O75" s="10"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -6662,15 +6655,15 @@
         <v>40</v>
       </c>
       <c r="L76" s="10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="N76" s="10"/>
       <c r="O76" s="10"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -6681,7 +6674,7 @@
         <v>35</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>8</v>
@@ -6702,17 +6695,17 @@
         <v>1945</v>
       </c>
       <c r="K77" s="8" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="L77" s="10" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="O77" s="10"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -6723,7 +6716,7 @@
         <v>35</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>8</v>
@@ -6747,14 +6740,14 @@
         <v>10</v>
       </c>
       <c r="L78" s="10" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O78" s="10"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -6765,7 +6758,7 @@
         <v>35</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>11</v>
@@ -6789,14 +6782,14 @@
         <v>10</v>
       </c>
       <c r="L79" s="10" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="O79" s="10"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -6807,7 +6800,7 @@
         <v>35</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E80" s="4" t="s">
         <v>11</v>
@@ -6828,17 +6821,17 @@
         <v>1955</v>
       </c>
       <c r="K80" s="8" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="L80" s="10" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="O80" s="10"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -6849,13 +6842,13 @@
         <v>35</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F81" s="25" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>35</v>
@@ -6870,17 +6863,17 @@
         <v>1989</v>
       </c>
       <c r="K81" s="8" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="L81" s="3" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="O81" s="10"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -6891,7 +6884,7 @@
         <v>35</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>8</v>
@@ -6912,17 +6905,17 @@
         <v>2003</v>
       </c>
       <c r="K82" s="5" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="L82" s="10" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="O82" s="10"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -6933,7 +6926,7 @@
         <v>35</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>8</v>
@@ -6957,14 +6950,14 @@
         <v>19</v>
       </c>
       <c r="L83" s="3" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="O83" s="10"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -6975,7 +6968,7 @@
         <v>35</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E84" s="4" t="s">
         <v>8</v>
@@ -6996,17 +6989,17 @@
         <v>1969</v>
       </c>
       <c r="K84" s="8" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="L84" s="3" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="O84" s="10"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -7017,7 +7010,7 @@
         <v>35</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>8</v>
@@ -7038,17 +7031,17 @@
         <v>1969</v>
       </c>
       <c r="K85" s="6" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="L85" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="O85" s="10"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -7059,7 +7052,7 @@
         <v>35</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>11</v>
@@ -7080,17 +7073,17 @@
         <v>1985</v>
       </c>
       <c r="K86" s="8" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="L86" s="3" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="O86" s="10"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -7101,13 +7094,13 @@
         <v>35</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F87" s="25" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G87" s="4" t="s">
         <v>35</v>
@@ -7122,17 +7115,17 @@
         <v>2011</v>
       </c>
       <c r="K87" s="49" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="L87" s="10" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="O87" s="10"/>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -7143,13 +7136,13 @@
         <v>35</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F88" s="25" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G88" s="4" t="s">
         <v>35</v>
@@ -7164,17 +7157,17 @@
         <v>1987</v>
       </c>
       <c r="K88" s="49" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="L88" s="10" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="O88" s="10"/>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -7185,7 +7178,7 @@
         <v>35</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>8</v>
@@ -7206,17 +7199,17 @@
         <v>1994</v>
       </c>
       <c r="K89" s="8" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="L89" s="10" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="O89" s="10"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -7227,7 +7220,7 @@
         <v>35</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E90" s="4" t="s">
         <v>11</v>
@@ -7248,17 +7241,17 @@
         <v>2017</v>
       </c>
       <c r="K90" s="8" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="L90" s="10" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="O90" s="10"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -7269,13 +7262,13 @@
         <v>35</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F91" s="25" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G91" s="4" t="s">
         <v>35</v>
@@ -7290,17 +7283,17 @@
         <v>2017</v>
       </c>
       <c r="K91" s="49" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="L91" s="3" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="O91" s="10"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -7311,7 +7304,7 @@
         <v>35</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>8</v>
@@ -7332,17 +7325,17 @@
         <v>1945</v>
       </c>
       <c r="K92" s="8" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="L92" s="3" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="O92" s="10"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -7353,7 +7346,7 @@
         <v>35</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E93" s="4" t="s">
         <v>8</v>
@@ -7377,14 +7370,14 @@
         <v>10</v>
       </c>
       <c r="L93" s="3" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O93" s="10"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -7395,7 +7388,7 @@
         <v>35</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E94" s="4" t="s">
         <v>11</v>
@@ -7419,14 +7412,14 @@
         <v>10</v>
       </c>
       <c r="L94" s="3" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="O94" s="10"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -7437,7 +7430,7 @@
         <v>35</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E95" s="4" t="s">
         <v>11</v>
@@ -7458,17 +7451,17 @@
         <v>1955</v>
       </c>
       <c r="K95" s="8" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="L95" s="3" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="O95" s="10"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -7479,13 +7472,13 @@
         <v>35</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E96" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F96" s="25" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G96" s="4" t="s">
         <v>35</v>
@@ -7500,17 +7493,17 @@
         <v>1989</v>
       </c>
       <c r="K96" s="31" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="L96" s="3" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="O96" s="10"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -7521,13 +7514,13 @@
         <v>35</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E97" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F97" s="25" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G97" s="4" t="s">
         <v>35</v>
@@ -7542,17 +7535,17 @@
         <v>1989</v>
       </c>
       <c r="K97" s="8" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="L97" s="3" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="O97" s="10"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -7563,7 +7556,7 @@
         <v>35</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E98" s="4" t="s">
         <v>8</v>
@@ -7587,14 +7580,14 @@
         <v>19</v>
       </c>
       <c r="L98" s="3" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="M98" s="3" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="O98" s="10"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -7605,7 +7598,7 @@
         <v>35</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E99" s="4" t="s">
         <v>8</v>
@@ -7626,17 +7619,17 @@
         <v>1969</v>
       </c>
       <c r="K99" s="8" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="L99" s="3" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="M99" s="3" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="O99" s="10"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -7647,7 +7640,7 @@
         <v>35</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E100" s="4" t="s">
         <v>8</v>
@@ -7668,17 +7661,17 @@
         <v>1969</v>
       </c>
       <c r="K100" s="6" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="L100" s="3" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="M100" s="3" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="O100" s="10"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -7689,7 +7682,7 @@
         <v>35</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E101" s="4" t="s">
         <v>11</v>
@@ -7710,17 +7703,17 @@
         <v>1985</v>
       </c>
       <c r="K101" s="8" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="L101" s="3" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="M101" s="3" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="O101" s="10"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
         <v>101</v>
       </c>
@@ -7731,7 +7724,7 @@
         <v>35</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E102" s="4" t="s">
         <v>8</v>
@@ -7752,17 +7745,17 @@
         <v>1981</v>
       </c>
       <c r="K102" s="8" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="L102" s="3" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="M102" s="3" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="O102" s="10"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
         <v>102</v>
       </c>
@@ -7773,13 +7766,13 @@
         <v>35</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E103" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F103" s="25" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="G103" s="4" t="s">
         <v>35</v>
@@ -7794,17 +7787,17 @@
         <v>1989</v>
       </c>
       <c r="K103" s="8" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="L103" s="3" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="M103" s="3" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="O103" s="10"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
         <v>103</v>
       </c>
@@ -7815,7 +7808,7 @@
         <v>35</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E104" s="4" t="s">
         <v>8</v>
@@ -7836,17 +7829,17 @@
         <v>1994</v>
       </c>
       <c r="K104" s="8" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="L104" s="3" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="M104" s="3" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="O104" s="10"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
         <v>104</v>
       </c>
@@ -7857,7 +7850,7 @@
         <v>35</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E105" s="4" t="s">
         <v>8</v>
@@ -7878,17 +7871,17 @@
         <v>1990</v>
       </c>
       <c r="K105" s="8" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="L105" s="3" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="M105" s="3" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="O105" s="10"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
         <v>105</v>
       </c>
@@ -7899,7 +7892,7 @@
         <v>35</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E106" s="4" t="s">
         <v>8</v>
@@ -7920,17 +7913,17 @@
         <v>1999</v>
       </c>
       <c r="K106" s="8" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="L106" s="3" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="M106" s="3" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="O106" s="10"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
         <v>106</v>
       </c>
@@ -7941,7 +7934,7 @@
         <v>35</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E107" s="4" t="s">
         <v>11</v>
@@ -7965,14 +7958,14 @@
         <v>52</v>
       </c>
       <c r="L107" s="3" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="M107" s="3" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="O107" s="10"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
         <v>107</v>
       </c>
@@ -7983,13 +7976,13 @@
         <v>35</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E108" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F108" s="25" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="G108" s="4" t="s">
         <v>35</v>
@@ -8004,17 +7997,17 @@
         <v>2001</v>
       </c>
       <c r="K108" s="8" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="L108" s="3" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="M108" s="3" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="O108" s="10"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
         <v>108</v>
       </c>
@@ -8025,13 +8018,13 @@
         <v>35</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E109" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F109" s="25" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G109" s="4" t="s">
         <v>35</v>
@@ -8046,17 +8039,17 @@
         <v>2004</v>
       </c>
       <c r="K109" s="50" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="L109" s="3" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="M109" s="3" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="O109" s="10"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
         <v>109</v>
       </c>
@@ -8067,7 +8060,7 @@
         <v>35</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E110" s="4" t="s">
         <v>8</v>
@@ -8088,17 +8081,17 @@
         <v>2008</v>
       </c>
       <c r="K110" s="8" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="L110" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M110" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="O110" s="10"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
         <v>110</v>
       </c>
@@ -8109,13 +8102,13 @@
         <v>35</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E111" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F111" s="25" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G111" s="4" t="s">
         <v>35</v>
@@ -8133,14 +8126,14 @@
         <v>128</v>
       </c>
       <c r="L111" s="3" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="M111" s="3" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="O111" s="10"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
         <v>111</v>
       </c>
@@ -8151,13 +8144,13 @@
         <v>35</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E112" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F112" s="25" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G112" s="4" t="s">
         <v>35</v>
@@ -8172,17 +8165,17 @@
         <v>2017</v>
       </c>
       <c r="K112" s="49" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="L112" s="3" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="M112" s="3" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="O112" s="10"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="3">
         <v>112</v>
       </c>
@@ -8193,7 +8186,7 @@
         <v>35</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E113" s="4" t="s">
         <v>11</v>
@@ -8214,17 +8207,17 @@
         <v>2017</v>
       </c>
       <c r="K113" s="8" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="L113" s="3" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="M113" s="3" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="O113" s="10"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
         <v>113</v>
       </c>
@@ -8235,7 +8228,7 @@
         <v>35</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E114" s="4" t="s">
         <v>11</v>
@@ -8259,14 +8252,14 @@
         <v>40</v>
       </c>
       <c r="L114" s="3" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="M114" s="3" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="O114" s="10"/>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="3">
         <v>114</v>
       </c>
@@ -8277,13 +8270,13 @@
         <v>35</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E115" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F115" s="25" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G115" s="4" t="s">
         <v>35</v>
@@ -8298,17 +8291,17 @@
         <v>2019</v>
       </c>
       <c r="K115" s="51" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="L115" s="3" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="M115" s="3" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="O115" s="10"/>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="3">
         <v>115</v>
       </c>
@@ -8319,7 +8312,7 @@
         <v>35</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E116" s="4" t="s">
         <v>8</v>
@@ -8340,17 +8333,17 @@
         <v>1945</v>
       </c>
       <c r="K116" s="8" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="L116" s="3" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="M116" s="3" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="O116" s="10"/>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
         <v>116</v>
       </c>
@@ -8361,7 +8354,7 @@
         <v>35</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E117" s="4" t="s">
         <v>8</v>
@@ -8385,14 +8378,14 @@
         <v>10</v>
       </c>
       <c r="L117" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="M117" s="3" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O117" s="10"/>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" s="3">
         <v>117</v>
       </c>
@@ -8403,7 +8396,7 @@
         <v>35</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E118" s="4" t="s">
         <v>11</v>
@@ -8427,14 +8420,14 @@
         <v>10</v>
       </c>
       <c r="L118" s="3" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="M118" s="3" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="O118" s="10"/>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" s="3">
         <v>118</v>
       </c>
@@ -8445,7 +8438,7 @@
         <v>35</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E119" s="4" t="s">
         <v>11</v>
@@ -8466,17 +8459,17 @@
         <v>1955</v>
       </c>
       <c r="K119" s="8" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="L119" s="3" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="M119" s="3" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="O119" s="10"/>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
         <v>119</v>
       </c>
@@ -8487,7 +8480,7 @@
         <v>35</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E120" s="4" t="s">
         <v>8</v>
@@ -8508,17 +8501,17 @@
         <v>1969</v>
       </c>
       <c r="K120" s="8" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="L120" s="3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="M120" s="3" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="O120" s="10"/>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
         <v>120</v>
       </c>
@@ -8529,7 +8522,7 @@
         <v>35</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E121" s="4" t="s">
         <v>8</v>
@@ -8550,17 +8543,17 @@
         <v>1969</v>
       </c>
       <c r="K121" s="6" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="L121" s="3" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="M121" s="3" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="O121" s="10"/>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" s="3">
         <v>121</v>
       </c>
@@ -8571,7 +8564,7 @@
         <v>35</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E122" s="4" t="s">
         <v>11</v>
@@ -8592,17 +8585,17 @@
         <v>1985</v>
       </c>
       <c r="K122" s="8" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="L122" s="3" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="M122" s="3" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="O122" s="10"/>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
         <v>122</v>
       </c>
@@ -8613,13 +8606,13 @@
         <v>35</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E123" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F123" s="25" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G123" s="4" t="s">
         <v>35</v>
@@ -8634,17 +8627,17 @@
         <v>1976</v>
       </c>
       <c r="K123" s="52" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="L123" s="3" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="M123" s="3" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="O123" s="10"/>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" s="3">
         <v>123</v>
       </c>
@@ -8655,7 +8648,7 @@
         <v>35</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E124" s="42" t="s">
         <v>8</v>
@@ -8676,17 +8669,17 @@
         <v>1994</v>
       </c>
       <c r="K124" s="8" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="L124" s="3" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="M124" s="3" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="O124" s="10"/>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" s="3">
         <v>124</v>
       </c>
@@ -8697,7 +8690,7 @@
         <v>35</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E125" s="4" t="s">
         <v>8</v>
@@ -8718,17 +8711,17 @@
         <v>1990</v>
       </c>
       <c r="K125" s="8" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="L125" s="3" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="M125" s="3" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="O125" s="10"/>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" s="3">
         <v>125</v>
       </c>
@@ -8739,7 +8732,7 @@
         <v>35</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E126" s="4" t="s">
         <v>11</v>
@@ -8763,14 +8756,14 @@
         <v>52</v>
       </c>
       <c r="L126" s="3" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="M126" s="3" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="O126" s="10"/>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" s="3">
         <v>126</v>
       </c>
@@ -8781,13 +8774,13 @@
         <v>35</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E127" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F127" s="25" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G127" s="4" t="s">
         <v>35</v>
@@ -8802,17 +8795,17 @@
         <v>2002</v>
       </c>
       <c r="K127" s="49" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="L127" s="3" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="M127" s="3" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="O127" s="10"/>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" s="3">
         <v>127</v>
       </c>
@@ -8823,13 +8816,13 @@
         <v>35</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E128" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F128" s="25" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G128" s="4" t="s">
         <v>35</v>
@@ -8844,17 +8837,17 @@
         <v>2002</v>
       </c>
       <c r="K128" s="53" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="L128" s="3" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="M128" s="3" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="O128" s="10"/>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" s="3">
         <v>128</v>
       </c>
@@ -8865,13 +8858,13 @@
         <v>35</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E129" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F129" s="25" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G129" s="4" t="s">
         <v>35</v>
@@ -8886,17 +8879,17 @@
         <v>2001</v>
       </c>
       <c r="K129" s="52" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="L129" s="3" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="M129" s="3" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="O129" s="10"/>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" s="3">
         <v>129</v>
       </c>
@@ -8907,13 +8900,13 @@
         <v>35</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E130" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F130" s="25" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G130" s="4" t="s">
         <v>35</v>
@@ -8928,17 +8921,17 @@
         <v>2004</v>
       </c>
       <c r="K130" s="50" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="L130" s="3" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="M130" s="3" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="O130" s="10"/>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" s="3">
         <v>130</v>
       </c>
@@ -8949,7 +8942,7 @@
         <v>35</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E131" s="4" t="s">
         <v>8</v>
@@ -8970,17 +8963,17 @@
         <v>2008</v>
       </c>
       <c r="K131" s="8" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="L131" s="3" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="M131" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="O131" s="10"/>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" s="3">
         <v>131</v>
       </c>
@@ -8991,13 +8984,13 @@
         <v>35</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E132" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F132" s="25" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="G132" s="4" t="s">
         <v>35</v>
@@ -9012,191 +9005,190 @@
         <v>2014</v>
       </c>
       <c r="K132" s="53" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="L132" s="3" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="M132" s="3" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="O132" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F62" r:id="rId1" display="http://www.ohchr.org/EN/UDHR/Documents/UDHR_Translations/spn.pdf" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F65" r:id="rId2" display="https://www.ohchr.org/Documents/ProfessionalInterest/cerd_SP.pdf" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="F66" r:id="rId3" display="https://www.ohchr.org/Documents/ProfessionalInterest/cescr_SP.pdf" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="F69" r:id="rId4" display="https://www.ohchr.org/Documents/ProfessionalInterest/cedaw_SP.pdf" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="F71" r:id="rId5" display="https://www.ohchr.org/Documents/ProfessionalInterest/cmw_SP.pdf" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="F70" r:id="rId6" display="https://www.un.org/es/events/childrenday/pdf/derechos.pdf" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="F73" r:id="rId7" display="https://www.un.org/esa/socdev/enable/documents/tccconvs.pdf" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="F75" r:id="rId8" display="http://www.oas.org/es/sla/ddi/tratados_multilaterales_interamericanos_A-68_racismo.asp" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="F76" r:id="rId9" display="http://www.oas.org/es/sla/ddi/tratados_multilaterales_interamericanos_a-70_derechos_humanos_personas_mayores.asp" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="F72" r:id="rId10" display="https://www.oas.org/juridico/spanish/tratados/a-65.html" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="F74" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="F67" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="F63" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="F64" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="F3" r:id="rId15" display="http://www.ohchr.org/EN/UDHR/Documents/UDHR_Translations/spn.pdf" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="F8" r:id="rId16" display="https://www.ohchr.org/Documents/ProfessionalInterest/cerd_SP.pdf" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="F9" r:id="rId17" display="https://www.ohchr.org/Documents/ProfessionalInterest/cescr_SP.pdf" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="F12" r:id="rId18" display="https://www.ohchr.org/Documents/ProfessionalInterest/cedaw_SP.pdf" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="F16" r:id="rId19" display="https://www.ohchr.org/Documents/ProfessionalInterest/cmw_SP.pdf" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="F15" r:id="rId20" display="https://www.un.org/es/events/childrenday/pdf/derechos.pdf" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="F20" r:id="rId21" display="https://www.un.org/esa/socdev/enable/documents/tccconvs.pdf" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="F14" r:id="rId22" display="http://www.oas.org/es/sadye/inclusion-social/protocolo-ssv/docs/protocolo-san-salvador-es.pdf" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="F23" r:id="rId23" display="http://www.oas.org/es/sla/ddi/tratados_multilaterales_interamericanos_a-70_derechos_humanos_personas_mayores.asp" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="F19" r:id="rId24" display="https://www.oas.org/juridico/spanish/tratados/a-65.html" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="F21" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="F6" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="F10" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="F4" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="F5" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="F7" r:id="rId30" display="http://portal.unesco.org/es/ev.php-URL_ID=12949&amp;URL_DO=DO_TOPIC&amp;URL_SECTION=201.html" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="F13" r:id="rId31" display="https://www.ohchr.org/Documents/ProfessionalInterest/cat_SP.pdf" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="F17" r:id="rId32" display="https://www.oas.org/juridico/spanish/tratados/a-61.html" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="F18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="F11" r:id="rId34" display="http://www.oas.org/dil/esp/tratados_B-32_Convencion_Americana_sobre_Derechos_Humanos.pdf" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="F22" r:id="rId35" display="http://www.oas.org/es/sla/ddi/tratados_multilaterales_interamericanos_A-68_racismo.asp" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="F26" r:id="rId36" display="http://www.ohchr.org/EN/UDHR/Documents/UDHR_Translations/spn.pdf" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="F29" r:id="rId37" display="https://www.ohchr.org/Documents/ProfessionalInterest/cerd_SP.pdf" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="F30" r:id="rId38" display="https://www.ohchr.org/Documents/ProfessionalInterest/cescr_SP.pdf" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="F32" r:id="rId39" display="https://www.ohchr.org/Documents/ProfessionalInterest/cedaw_SP.pdf" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="F35" r:id="rId40" display="https://www.ohchr.org/Documents/ProfessionalInterest/cmw_SP.pdf" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="F34" r:id="rId41" display="https://www.un.org/es/events/childrenday/pdf/derechos.pdf" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="F39" r:id="rId42" display="https://www.un.org/esa/socdev/enable/documents/tccconvs.pdf" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="F33" r:id="rId43" display="http://www.oas.org/es/sadye/inclusion-social/protocolo-ssv/docs/protocolo-san-salvador-es.pdf" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="F42" r:id="rId44" display="http://www.oas.org/es/sla/ddi/tratados_multilaterales_interamericanos_a-70_derechos_humanos_personas_mayores.asp" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="F38" r:id="rId45" display="https://www.oas.org/juridico/spanish/tratados/a-65.html" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="F40" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="F27" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="F28" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="F36" r:id="rId49" display="https://www.oas.org/juridico/spanish/tratados/a-61.html" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="F37" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="F41" r:id="rId51" display="http://www.oas.org/es/sla/ddi/tratados_multilaterales_interamericanos_A-68_racismo.asp" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="F25" r:id="rId52" display="https://www.who.int/governance/eb/who_constitution_sp.pdf" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="F44" r:id="rId53" display="http://www.ohchr.org/EN/UDHR/Documents/UDHR_Translations/spn.pdf" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="F49" r:id="rId54" display="https://www.ohchr.org/Documents/ProfessionalInterest/cerd_SP.pdf" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="F50" r:id="rId55" display="https://www.ohchr.org/Documents/ProfessionalInterest/cescr_SP.pdf" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="F52" r:id="rId56" display="https://www.ohchr.org/Documents/ProfessionalInterest/cedaw_SP.pdf" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="F55" r:id="rId57" display="https://www.ohchr.org/Documents/ProfessionalInterest/cmw_SP.pdf" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="F54" r:id="rId58" display="https://www.un.org/es/events/childrenday/pdf/derechos.pdf" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="F56" r:id="rId59" display="https://www.un.org/esa/socdev/enable/documents/tccconvs.pdf" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="F53" r:id="rId60" display="http://www.oas.org/es/sadye/inclusion-social/protocolo-ssv/docs/protocolo-san-salvador-es.pdf" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="F60" r:id="rId61" display="http://www.oas.org/es/sla/ddi/tratados_multilaterales_interamericanos_a-70_derechos_humanos_personas_mayores.asp" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="F57" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="F47" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="F45" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="F46" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="F59" r:id="rId66" display="http://www.oas.org/es/sla/ddi/tratados_multilaterales_interamericanos_A-68_racismo.asp" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="F48" r:id="rId67" display="https://www.ilo.org/dyn/normlex/es/f?p=NORMLEXPUB:12100:0::NO::P12100_ILO_CODE:C102" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="F51" r:id="rId68" display="https://www.ilo.org/dyn/normlex/es/f?p=NORMLEXPUB:12100:0::NO:12100:P12100_INSTRUMENT_ID:312273:NO" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="F58" r:id="rId69" display="https://www.ilo.org/dyn/normlex/es/f?p=NORMLEXPUB:12100:0::NO::P12100_ILO_CODE:C189" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="F74:F76" r:id="rId70" display="Carta de las Naciones Unidas" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="F82" r:id="rId71" display="http://portal.unesco.org/es/ev.php-URL_ID=12949&amp;URL_DO=DO_TOPIC&amp;URL_SECTION=201.html" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="F80" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="F79" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="F89" r:id="rId74" display="http://www.oas.org/es/sadye/inclusion-social/protocolo-ssv/docs/protocolo-san-salvador-es.pdf" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="F84" r:id="rId75" display="https://www.ohchr.org/Documents/ProfessionalInterest/cescr_SP.pdf" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="F83" r:id="rId76" display="https://www.ohchr.org/Documents/ProfessionalInterest/cerd_SP.pdf" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="F78" r:id="rId77" display="http://www.ohchr.org/EN/UDHR/Documents/UDHR_Translations/spn.pdf" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="F90" r:id="rId78" display="http://www.oas.org/es/sla/ddi/tratados_multilaterales_interamericanos_A-68_racismo.asp" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="F81" r:id="rId79" display="Convenio 111 Organización Internacional del Trabajo (OIT) " xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="F87" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="F88" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="F91" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="F85" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="F127" r:id="rId84" display="https://www.ohchr.org/SP/ProfessionalInterest/Pages/OPSCCRC.aspx" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="F128" r:id="rId85" display="https://www.ohchr.org/SP/ProfessionalInterest/Pages/OPACCRC.aspx" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="F119" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="F118" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="F117" r:id="rId88" display="http://www.ohchr.org/EN/UDHR/Documents/UDHR_Translations/spn.pdf" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="F120" r:id="rId89" display="https://www.ohchr.org/Documents/ProfessionalInterest/cescr_SP.pdf" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="F124" r:id="rId90" display="http://www.oas.org/es/sadye/inclusion-social/protocolo-ssv/docs/protocolo-san-salvador-es.pdf" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="F121" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="F125" r:id="rId92" display="https://www.un.org/es/events/childrenday/pdf/derechos.pdf" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="F126" r:id="rId93" display="https://www.oas.org/juridico/spanish/tratados/a-61.html" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="F131" r:id="rId94" display="https://www.un.org/esa/socdev/enable/documents/tccconvs.pdf" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="F129" r:id="rId95" display="Convenio 182 Organización Internacional del Trabajo (OIT) " xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="F93" r:id="rId96" display="http://www.ohchr.org/EN/UDHR/Documents/UDHR_Translations/spn.pdf" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="F94" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="F98" r:id="rId98" display="https://www.ohchr.org/Documents/ProfessionalInterest/cerd_SP.pdf" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="F99" r:id="rId99" display="https://www.ohchr.org/Documents/ProfessionalInterest/cescr_SP.pdf" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="F104" r:id="rId100" display="http://www.oas.org/es/sadye/inclusion-social/protocolo-ssv/docs/protocolo-san-salvador-es.pdf" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="F97" r:id="rId101" display="Convenio 111 Organización Internacional del Trabajo (OIT) " xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="F102" r:id="rId102" display="https://www.ohchr.org/Documents/ProfessionalInterest/cedaw_SP.pdf" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="F105" r:id="rId103" display="https://www.un.org/es/events/childrenday/pdf/derechos.pdf" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="F106" r:id="rId104" display="https://www.ohchr.org/Documents/ProfessionalInterest/cmw_SP.pdf" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="F112" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="F113" r:id="rId106" display="http://www.oas.org/es/sla/ddi/tratados_multilaterales_interamericanos_A-68_racismo.asp" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="F107" r:id="rId107" display="https://www.oas.org/juridico/spanish/tratados/a-61.html" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="F110" r:id="rId108" display="https://www.un.org/esa/socdev/enable/documents/tccconvs.pdf" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="F95" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="F109" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="F114" r:id="rId111" display="http://www.oas.org/es/sla/ddi/tratados_multilaterales_interamericanos_a-70_derechos_humanos_personas_mayores.asp" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="F111" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="F115" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="F132" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="F123" r:id="rId115" display="Convenio 138 Organización Internacional del Trabajo (OIT) " xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="F130" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="F100" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="F108" r:id="rId118" display="https://www.ohchr.org/Documents/HRBodies/CEDAW/OP_CEDAW_sp.pdf" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="F96" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="F103" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="F2" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="F24" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="F43" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="F61" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="F77" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="F92" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="F116" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="F31" r:id="rId128" display="http://www.oas.org/dil/esp/tratados_B-32_Convencion_Americana_sobre_Derechos_Humanos.pdf" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="F68" r:id="rId129" display="http://www.oas.org/dil/esp/tratados_B-32_Convencion_Americana_sobre_Derechos_Humanos.pdf" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="F86" r:id="rId130" display="http://www.oas.org/dil/esp/tratados_B-32_Convencion_Americana_sobre_Derechos_Humanos.pdf" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="F101" r:id="rId131" display="http://www.oas.org/dil/esp/tratados_B-32_Convencion_Americana_sobre_Derechos_Humanos.pdf" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="F122" r:id="rId132" display="http://www.oas.org/dil/esp/tratados_B-32_Convencion_Americana_sobre_Derechos_Humanos.pdf" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="F62" r:id="rId1" display="http://www.ohchr.org/EN/UDHR/Documents/UDHR_Translations/spn.pdf"/>
+    <hyperlink ref="F65" r:id="rId2" display="https://www.ohchr.org/Documents/ProfessionalInterest/cerd_SP.pdf"/>
+    <hyperlink ref="F66" r:id="rId3" display="https://www.ohchr.org/Documents/ProfessionalInterest/cescr_SP.pdf"/>
+    <hyperlink ref="F69" r:id="rId4" display="https://www.ohchr.org/Documents/ProfessionalInterest/cedaw_SP.pdf"/>
+    <hyperlink ref="F71" r:id="rId5" display="https://www.ohchr.org/Documents/ProfessionalInterest/cmw_SP.pdf"/>
+    <hyperlink ref="F70" r:id="rId6" display="https://www.un.org/es/events/childrenday/pdf/derechos.pdf"/>
+    <hyperlink ref="F73" r:id="rId7" display="https://www.un.org/esa/socdev/enable/documents/tccconvs.pdf"/>
+    <hyperlink ref="F72" r:id="rId8" display="https://www.oas.org/juridico/spanish/tratados/a-65.html"/>
+    <hyperlink ref="F67" r:id="rId9"/>
+    <hyperlink ref="F63" r:id="rId10"/>
+    <hyperlink ref="F64" r:id="rId11"/>
+    <hyperlink ref="F3" r:id="rId12" display="http://www.ohchr.org/EN/UDHR/Documents/UDHR_Translations/spn.pdf"/>
+    <hyperlink ref="F8" r:id="rId13" display="https://www.ohchr.org/Documents/ProfessionalInterest/cerd_SP.pdf"/>
+    <hyperlink ref="F9" r:id="rId14" display="https://www.ohchr.org/Documents/ProfessionalInterest/cescr_SP.pdf"/>
+    <hyperlink ref="F12" r:id="rId15" display="https://www.ohchr.org/Documents/ProfessionalInterest/cedaw_SP.pdf"/>
+    <hyperlink ref="F16" r:id="rId16" display="https://www.ohchr.org/Documents/ProfessionalInterest/cmw_SP.pdf"/>
+    <hyperlink ref="F15" r:id="rId17" display="https://www.un.org/es/events/childrenday/pdf/derechos.pdf"/>
+    <hyperlink ref="F20" r:id="rId18" display="https://www.un.org/esa/socdev/enable/documents/tccconvs.pdf"/>
+    <hyperlink ref="F14" r:id="rId19" display="http://www.oas.org/es/sadye/inclusion-social/protocolo-ssv/docs/protocolo-san-salvador-es.pdf"/>
+    <hyperlink ref="F23" r:id="rId20" display="http://www.oas.org/es/sla/ddi/tratados_multilaterales_interamericanos_a-70_derechos_humanos_personas_mayores.asp"/>
+    <hyperlink ref="F19" r:id="rId21" display="https://www.oas.org/juridico/spanish/tratados/a-65.html"/>
+    <hyperlink ref="F21" r:id="rId22"/>
+    <hyperlink ref="F6" r:id="rId23"/>
+    <hyperlink ref="F10" r:id="rId24"/>
+    <hyperlink ref="F4" r:id="rId25"/>
+    <hyperlink ref="F5" r:id="rId26"/>
+    <hyperlink ref="F7" r:id="rId27" display="http://portal.unesco.org/es/ev.php-URL_ID=12949&amp;URL_DO=DO_TOPIC&amp;URL_SECTION=201.html"/>
+    <hyperlink ref="F13" r:id="rId28" display="https://www.ohchr.org/Documents/ProfessionalInterest/cat_SP.pdf"/>
+    <hyperlink ref="F17" r:id="rId29" display="https://www.oas.org/juridico/spanish/tratados/a-61.html"/>
+    <hyperlink ref="F18" r:id="rId30"/>
+    <hyperlink ref="F11" r:id="rId31" display="http://www.oas.org/dil/esp/tratados_B-32_Convencion_Americana_sobre_Derechos_Humanos.pdf"/>
+    <hyperlink ref="F22" r:id="rId32" display="http://www.oas.org/es/sla/ddi/tratados_multilaterales_interamericanos_A-68_racismo.asp"/>
+    <hyperlink ref="F26" r:id="rId33" display="http://www.ohchr.org/EN/UDHR/Documents/UDHR_Translations/spn.pdf"/>
+    <hyperlink ref="F29" r:id="rId34" display="https://www.ohchr.org/Documents/ProfessionalInterest/cerd_SP.pdf"/>
+    <hyperlink ref="F30" r:id="rId35" display="https://www.ohchr.org/Documents/ProfessionalInterest/cescr_SP.pdf"/>
+    <hyperlink ref="F32" r:id="rId36" display="https://www.ohchr.org/Documents/ProfessionalInterest/cedaw_SP.pdf"/>
+    <hyperlink ref="F35" r:id="rId37" display="https://www.ohchr.org/Documents/ProfessionalInterest/cmw_SP.pdf"/>
+    <hyperlink ref="F34" r:id="rId38" display="https://www.un.org/es/events/childrenday/pdf/derechos.pdf"/>
+    <hyperlink ref="F39" r:id="rId39" display="https://www.un.org/esa/socdev/enable/documents/tccconvs.pdf"/>
+    <hyperlink ref="F33" r:id="rId40" display="http://www.oas.org/es/sadye/inclusion-social/protocolo-ssv/docs/protocolo-san-salvador-es.pdf"/>
+    <hyperlink ref="F42" r:id="rId41" display="http://www.oas.org/es/sla/ddi/tratados_multilaterales_interamericanos_a-70_derechos_humanos_personas_mayores.asp"/>
+    <hyperlink ref="F38" r:id="rId42" display="https://www.oas.org/juridico/spanish/tratados/a-65.html"/>
+    <hyperlink ref="F40" r:id="rId43"/>
+    <hyperlink ref="F27" r:id="rId44"/>
+    <hyperlink ref="F28" r:id="rId45"/>
+    <hyperlink ref="F36" r:id="rId46" display="https://www.oas.org/juridico/spanish/tratados/a-61.html"/>
+    <hyperlink ref="F37" r:id="rId47"/>
+    <hyperlink ref="F41" r:id="rId48" display="http://www.oas.org/es/sla/ddi/tratados_multilaterales_interamericanos_A-68_racismo.asp"/>
+    <hyperlink ref="F25" r:id="rId49" display="https://www.who.int/governance/eb/who_constitution_sp.pdf"/>
+    <hyperlink ref="F44" r:id="rId50" display="http://www.ohchr.org/EN/UDHR/Documents/UDHR_Translations/spn.pdf"/>
+    <hyperlink ref="F49" r:id="rId51" display="https://www.ohchr.org/Documents/ProfessionalInterest/cerd_SP.pdf"/>
+    <hyperlink ref="F50" r:id="rId52" display="https://www.ohchr.org/Documents/ProfessionalInterest/cescr_SP.pdf"/>
+    <hyperlink ref="F52" r:id="rId53" display="https://www.ohchr.org/Documents/ProfessionalInterest/cedaw_SP.pdf"/>
+    <hyperlink ref="F55" r:id="rId54" display="https://www.ohchr.org/Documents/ProfessionalInterest/cmw_SP.pdf"/>
+    <hyperlink ref="F54" r:id="rId55" display="https://www.un.org/es/events/childrenday/pdf/derechos.pdf"/>
+    <hyperlink ref="F56" r:id="rId56" display="https://www.un.org/esa/socdev/enable/documents/tccconvs.pdf"/>
+    <hyperlink ref="F53" r:id="rId57" display="http://www.oas.org/es/sadye/inclusion-social/protocolo-ssv/docs/protocolo-san-salvador-es.pdf"/>
+    <hyperlink ref="F60" r:id="rId58" display="http://www.oas.org/es/sla/ddi/tratados_multilaterales_interamericanos_a-70_derechos_humanos_personas_mayores.asp"/>
+    <hyperlink ref="F57" r:id="rId59"/>
+    <hyperlink ref="F47" r:id="rId60"/>
+    <hyperlink ref="F45" r:id="rId61"/>
+    <hyperlink ref="F46" r:id="rId62"/>
+    <hyperlink ref="F59" r:id="rId63" display="http://www.oas.org/es/sla/ddi/tratados_multilaterales_interamericanos_A-68_racismo.asp"/>
+    <hyperlink ref="F48" r:id="rId64" display="https://www.ilo.org/dyn/normlex/es/f?p=NORMLEXPUB:12100:0::NO::P12100_ILO_CODE:C102"/>
+    <hyperlink ref="F51" r:id="rId65" display="https://www.ilo.org/dyn/normlex/es/f?p=NORMLEXPUB:12100:0::NO:12100:P12100_INSTRUMENT_ID:312273:NO"/>
+    <hyperlink ref="F58" r:id="rId66" display="https://www.ilo.org/dyn/normlex/es/f?p=NORMLEXPUB:12100:0::NO::P12100_ILO_CODE:C189"/>
+    <hyperlink ref="F82" r:id="rId67" display="http://portal.unesco.org/es/ev.php-URL_ID=12949&amp;URL_DO=DO_TOPIC&amp;URL_SECTION=201.html"/>
+    <hyperlink ref="F80" r:id="rId68"/>
+    <hyperlink ref="F79" r:id="rId69"/>
+    <hyperlink ref="F89" r:id="rId70" display="http://www.oas.org/es/sadye/inclusion-social/protocolo-ssv/docs/protocolo-san-salvador-es.pdf"/>
+    <hyperlink ref="F84" r:id="rId71" display="https://www.ohchr.org/Documents/ProfessionalInterest/cescr_SP.pdf"/>
+    <hyperlink ref="F83" r:id="rId72" display="https://www.ohchr.org/Documents/ProfessionalInterest/cerd_SP.pdf"/>
+    <hyperlink ref="F78" r:id="rId73" display="http://www.ohchr.org/EN/UDHR/Documents/UDHR_Translations/spn.pdf"/>
+    <hyperlink ref="F90" r:id="rId74" display="http://www.oas.org/es/sla/ddi/tratados_multilaterales_interamericanos_A-68_racismo.asp"/>
+    <hyperlink ref="F81" r:id="rId75" display="Convenio 111 Organización Internacional del Trabajo (OIT) "/>
+    <hyperlink ref="F87" r:id="rId76"/>
+    <hyperlink ref="F88" r:id="rId77"/>
+    <hyperlink ref="F91" r:id="rId78"/>
+    <hyperlink ref="F85" r:id="rId79"/>
+    <hyperlink ref="F127" r:id="rId80" display="https://www.ohchr.org/SP/ProfessionalInterest/Pages/OPSCCRC.aspx"/>
+    <hyperlink ref="F128" r:id="rId81" display="https://www.ohchr.org/SP/ProfessionalInterest/Pages/OPACCRC.aspx"/>
+    <hyperlink ref="F119" r:id="rId82"/>
+    <hyperlink ref="F118" r:id="rId83"/>
+    <hyperlink ref="F117" r:id="rId84" display="http://www.ohchr.org/EN/UDHR/Documents/UDHR_Translations/spn.pdf"/>
+    <hyperlink ref="F120" r:id="rId85" display="https://www.ohchr.org/Documents/ProfessionalInterest/cescr_SP.pdf"/>
+    <hyperlink ref="F124" r:id="rId86" display="http://www.oas.org/es/sadye/inclusion-social/protocolo-ssv/docs/protocolo-san-salvador-es.pdf"/>
+    <hyperlink ref="F121" r:id="rId87"/>
+    <hyperlink ref="F125" r:id="rId88" display="https://www.un.org/es/events/childrenday/pdf/derechos.pdf"/>
+    <hyperlink ref="F126" r:id="rId89" display="https://www.oas.org/juridico/spanish/tratados/a-61.html"/>
+    <hyperlink ref="F131" r:id="rId90" display="https://www.un.org/esa/socdev/enable/documents/tccconvs.pdf"/>
+    <hyperlink ref="F129" r:id="rId91" display="Convenio 182 Organización Internacional del Trabajo (OIT) "/>
+    <hyperlink ref="F93" r:id="rId92" display="http://www.ohchr.org/EN/UDHR/Documents/UDHR_Translations/spn.pdf"/>
+    <hyperlink ref="F94" r:id="rId93"/>
+    <hyperlink ref="F98" r:id="rId94" display="https://www.ohchr.org/Documents/ProfessionalInterest/cerd_SP.pdf"/>
+    <hyperlink ref="F99" r:id="rId95" display="https://www.ohchr.org/Documents/ProfessionalInterest/cescr_SP.pdf"/>
+    <hyperlink ref="F104" r:id="rId96" display="http://www.oas.org/es/sadye/inclusion-social/protocolo-ssv/docs/protocolo-san-salvador-es.pdf"/>
+    <hyperlink ref="F97" r:id="rId97" display="Convenio 111 Organización Internacional del Trabajo (OIT) "/>
+    <hyperlink ref="F102" r:id="rId98" display="https://www.ohchr.org/Documents/ProfessionalInterest/cedaw_SP.pdf"/>
+    <hyperlink ref="F105" r:id="rId99" display="https://www.un.org/es/events/childrenday/pdf/derechos.pdf"/>
+    <hyperlink ref="F106" r:id="rId100" display="https://www.ohchr.org/Documents/ProfessionalInterest/cmw_SP.pdf"/>
+    <hyperlink ref="F112" r:id="rId101"/>
+    <hyperlink ref="F113" r:id="rId102" display="http://www.oas.org/es/sla/ddi/tratados_multilaterales_interamericanos_A-68_racismo.asp"/>
+    <hyperlink ref="F107" r:id="rId103" display="https://www.oas.org/juridico/spanish/tratados/a-61.html"/>
+    <hyperlink ref="F110" r:id="rId104" display="https://www.un.org/esa/socdev/enable/documents/tccconvs.pdf"/>
+    <hyperlink ref="F95" r:id="rId105"/>
+    <hyperlink ref="F109" r:id="rId106"/>
+    <hyperlink ref="F114" r:id="rId107" display="http://www.oas.org/es/sla/ddi/tratados_multilaterales_interamericanos_a-70_derechos_humanos_personas_mayores.asp"/>
+    <hyperlink ref="F111" r:id="rId108"/>
+    <hyperlink ref="F115" r:id="rId109"/>
+    <hyperlink ref="F132" r:id="rId110"/>
+    <hyperlink ref="F123" r:id="rId111" display="Convenio 138 Organización Internacional del Trabajo (OIT) "/>
+    <hyperlink ref="F130" r:id="rId112"/>
+    <hyperlink ref="F100" r:id="rId113"/>
+    <hyperlink ref="F108" r:id="rId114" display="https://www.ohchr.org/Documents/HRBodies/CEDAW/OP_CEDAW_sp.pdf"/>
+    <hyperlink ref="F96" r:id="rId115"/>
+    <hyperlink ref="F103" r:id="rId116"/>
+    <hyperlink ref="F2" r:id="rId117"/>
+    <hyperlink ref="F24" r:id="rId118"/>
+    <hyperlink ref="F43" r:id="rId119"/>
+    <hyperlink ref="F61" r:id="rId120"/>
+    <hyperlink ref="F77" r:id="rId121"/>
+    <hyperlink ref="F92" r:id="rId122"/>
+    <hyperlink ref="F116" r:id="rId123"/>
+    <hyperlink ref="F31" r:id="rId124" display="http://www.oas.org/dil/esp/tratados_B-32_Convencion_Americana_sobre_Derechos_Humanos.pdf"/>
+    <hyperlink ref="F68" r:id="rId125" display="http://www.oas.org/dil/esp/tratados_B-32_Convencion_Americana_sobre_Derechos_Humanos.pdf"/>
+    <hyperlink ref="F86" r:id="rId126" display="http://www.oas.org/dil/esp/tratados_B-32_Convencion_Americana_sobre_Derechos_Humanos.pdf"/>
+    <hyperlink ref="F101" r:id="rId127" display="http://www.oas.org/dil/esp/tratados_B-32_Convencion_Americana_sobre_Derechos_Humanos.pdf"/>
+    <hyperlink ref="F122" r:id="rId128" display="http://www.oas.org/dil/esp/tratados_B-32_Convencion_Americana_sobre_Derechos_Humanos.pdf"/>
+    <hyperlink ref="F74" r:id="rId129"/>
+    <hyperlink ref="F75" r:id="rId130" display="http://www.oas.org/es/sla/ddi/tratados_multilaterales_interamericanos_A-68_racismo.asp"/>
+    <hyperlink ref="F76" r:id="rId131" display="http://www.oas.org/es/sla/ddi/tratados_multilaterales_interamericanos_a-70_derechos_humanos_personas_mayores.asp"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId133"/>
+  <pageSetup orientation="portrait" r:id="rId132"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="13"/>
-    <col min="3" max="3" width="15.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="29.88671875" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="43.109375" style="13" customWidth="1"/>
-    <col min="9" max="16384" width="11.44140625" style="13"/>
+    <col min="1" max="1" width="2.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="13"/>
+    <col min="3" max="3" width="15.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43.140625" style="13" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="66" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B1" s="67" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>2</v>
@@ -9205,16 +9197,16 @@
         <v>3</v>
       </c>
       <c r="G1" s="67" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="H1" s="66" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -9228,22 +9220,22 @@
         <v>35</v>
       </c>
       <c r="E2" s="68" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="G2" s="13">
         <v>1967</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -9257,10 +9249,10 @@
         <v>35</v>
       </c>
       <c r="E3" s="68" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G3" s="13">
         <v>1967</v>
@@ -9269,10 +9261,10 @@
         <v>131</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -9286,22 +9278,22 @@
         <v>35</v>
       </c>
       <c r="E4" s="68" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G4" s="13">
         <v>1967</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -9315,10 +9307,10 @@
         <v>35</v>
       </c>
       <c r="E5" s="68" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G5" s="13">
         <v>1967</v>
@@ -9327,10 +9319,10 @@
         <v>130</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -9341,25 +9333,25 @@
         <v>35</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E6" s="68" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G6" s="13">
         <v>1967</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -9370,25 +9362,25 @@
         <v>35</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E7" s="68" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G7" s="13">
         <v>1967</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -9399,69 +9391,69 @@
         <v>35</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E8" s="68" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G8" s="13">
         <v>1967</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://www.impo.com.uy/bases/constitucion/1967-1967" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="E3:E8" r:id="rId2" display="https://www.impo.com.uy/bases/constitucion/1967-1967" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://www.impo.com.uy/bases/constitucion/1967-1967"/>
+    <hyperlink ref="E3:E8" r:id="rId2" display="https://www.impo.com.uy/bases/constitucion/1967-1967"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:I129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E129" sqref="E2:E129"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" style="56" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.109375" style="46" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.88671875" style="46" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="56" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" style="46" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" style="46" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="58" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="255.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" style="46" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="255.6640625" style="58" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="81.5546875" style="56" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.44140625" style="56"/>
+    <col min="6" max="6" width="255.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="255.7109375" style="58" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="81.5703125" style="56" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="54" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B1" s="67" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="E1" s="67" t="s">
         <v>5</v>
@@ -9470,16 +9462,16 @@
         <v>69</v>
       </c>
       <c r="G1" s="67" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -9505,10 +9497,10 @@
         <v>159</v>
       </c>
       <c r="I2" s="56" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -9534,10 +9526,10 @@
         <v>158</v>
       </c>
       <c r="I3" s="56" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -9563,10 +9555,10 @@
         <v>155</v>
       </c>
       <c r="I4" s="56" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -9592,10 +9584,10 @@
         <v>154</v>
       </c>
       <c r="I5" s="56" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -9621,10 +9613,10 @@
         <v>153</v>
       </c>
       <c r="I6" s="56" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -9647,13 +9639,13 @@
         <v>1985</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I7" s="56" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -9676,13 +9668,13 @@
         <v>1998</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I8" s="56" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -9705,13 +9697,13 @@
         <v>2001</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I9" s="56" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -9734,13 +9726,13 @@
         <v>2004</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="I10" s="56" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -9757,19 +9749,19 @@
         <v>18213</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G11" s="4">
         <v>2007</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I11" s="56" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -9786,17 +9778,17 @@
         <v>18250</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G12" s="4">
         <v>2008</v>
       </c>
       <c r="H12" s="59"/>
       <c r="I12" s="56" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -9822,10 +9814,10 @@
         <v>151</v>
       </c>
       <c r="I13" s="56" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>13</v>
       </c>
@@ -9842,17 +9834,17 @@
         <v>18651</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G14" s="4">
         <v>2010</v>
       </c>
       <c r="H14" s="59"/>
       <c r="I14" s="56" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>14</v>
       </c>
@@ -9878,10 +9870,10 @@
         <v>150</v>
       </c>
       <c r="I15" s="56" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>15</v>
       </c>
@@ -9898,17 +9890,17 @@
         <v>19122</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G16" s="4">
         <v>2013</v>
       </c>
       <c r="H16" s="59"/>
       <c r="I16" s="56" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>16</v>
       </c>
@@ -9931,13 +9923,13 @@
         <v>2014</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I17" s="56" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>17</v>
       </c>
@@ -9951,7 +9943,7 @@
         <v>35</v>
       </c>
       <c r="E18" s="74">
-        <v>18889</v>
+        <v>19889</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>149</v>
@@ -9960,13 +9952,13 @@
         <v>2020</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="I18" s="56" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>18</v>
       </c>
@@ -9989,13 +9981,13 @@
         <v>1932</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="I19" s="56" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>19</v>
       </c>
@@ -10018,13 +10010,13 @@
         <v>1992</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I20" s="56" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>20</v>
       </c>
@@ -10041,19 +10033,19 @@
         <v>17242</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G21" s="4">
         <v>2000</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I21" s="56" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>21</v>
       </c>
@@ -10076,13 +10068,13 @@
         <v>2001</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I22" s="56" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>22</v>
       </c>
@@ -10105,13 +10097,13 @@
         <v>2007</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I23" s="56" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>23</v>
       </c>
@@ -10128,19 +10120,19 @@
         <v>18161</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G24" s="4">
         <v>2007</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I24" s="56" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>24</v>
       </c>
@@ -10163,13 +10155,13 @@
         <v>2007</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I25" s="56" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>25</v>
       </c>
@@ -10192,13 +10184,13 @@
         <v>2008</v>
       </c>
       <c r="H26" s="56" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I26" s="56" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>26</v>
       </c>
@@ -10221,13 +10213,13 @@
         <v>2008</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I27" s="56" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>27</v>
       </c>
@@ -10250,13 +10242,13 @@
         <v>2008</v>
       </c>
       <c r="H28" s="56" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I28" s="56" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>28</v>
       </c>
@@ -10279,13 +10271,13 @@
         <v>2009</v>
       </c>
       <c r="H29" s="56" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I29" s="56" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
         <v>29</v>
       </c>
@@ -10308,13 +10300,13 @@
         <v>2012</v>
       </c>
       <c r="H30" s="56" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I30" s="56" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
         <v>30</v>
       </c>
@@ -10337,13 +10329,13 @@
         <v>2013</v>
       </c>
       <c r="H31" s="60" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I31" s="56" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
         <v>31</v>
       </c>
@@ -10366,13 +10358,13 @@
         <v>2015</v>
       </c>
       <c r="H32" s="56" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I32" s="56" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="9">
         <v>32</v>
       </c>
@@ -10395,13 +10387,13 @@
         <v>2017</v>
       </c>
       <c r="H33" s="56" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I33" s="56" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9">
         <v>33</v>
       </c>
@@ -10424,13 +10416,13 @@
         <v>1896</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I34" s="56" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9">
         <v>34</v>
       </c>
@@ -10453,13 +10445,13 @@
         <v>1919</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I35" s="56" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9">
         <v>35</v>
       </c>
@@ -10476,19 +10468,19 @@
         <v>10449</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G36" s="4">
         <v>1943</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I36" s="56" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9">
         <v>36</v>
       </c>
@@ -10511,13 +10503,13 @@
         <v>1954</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I37" s="56" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9">
         <v>37</v>
       </c>
@@ -10540,13 +10532,13 @@
         <v>1995</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I38" s="56" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9">
         <v>38</v>
       </c>
@@ -10569,13 +10561,13 @@
         <v>2001</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I39" s="56" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9">
         <v>39</v>
       </c>
@@ -10598,13 +10590,13 @@
         <v>2004</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I40" s="56" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
         <v>40</v>
       </c>
@@ -10627,13 +10619,13 @@
         <v>2006</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="I41" s="56" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9">
         <v>41</v>
       </c>
@@ -10656,13 +10648,13 @@
         <v>2006</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I42" s="56" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9">
         <v>42</v>
       </c>
@@ -10685,13 +10677,13 @@
         <v>2007</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I43" s="56" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9">
         <v>43</v>
       </c>
@@ -10708,19 +10700,19 @@
         <v>18227</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G44" s="4">
         <v>2007</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I44" s="56" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9">
         <v>44</v>
       </c>
@@ -10743,13 +10735,13 @@
         <v>2007</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I45" s="56" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9">
         <v>45</v>
       </c>
@@ -10772,13 +10764,13 @@
         <v>2007</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I46" s="56" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9">
         <v>46</v>
       </c>
@@ -10801,13 +10793,13 @@
         <v>2008</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I47" s="56" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9">
         <v>47</v>
       </c>
@@ -10830,13 +10822,13 @@
         <v>2008</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I48" s="56" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9">
         <v>48</v>
       </c>
@@ -10859,13 +10851,13 @@
         <v>2008</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I49" s="56" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9">
         <v>49</v>
       </c>
@@ -10888,13 +10880,13 @@
         <v>2008</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I50" s="56" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9">
         <v>50</v>
       </c>
@@ -10917,13 +10909,13 @@
         <v>2009</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I51" s="56" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9">
         <v>51</v>
       </c>
@@ -10946,13 +10938,13 @@
         <v>2009</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="I52" s="56" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="9">
         <v>52</v>
       </c>
@@ -10969,19 +10961,19 @@
         <v>18850</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G53" s="4">
         <v>2011</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I53" s="56" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="9">
         <v>53</v>
       </c>
@@ -11004,13 +10996,13 @@
         <v>2012</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I54" s="56" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9">
         <v>54</v>
       </c>
@@ -11033,13 +11025,13 @@
         <v>2014</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I55" s="56" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9">
         <v>55</v>
       </c>
@@ -11062,13 +11054,13 @@
         <v>2015</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="I56" s="56" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9">
         <v>56</v>
       </c>
@@ -11091,13 +11083,13 @@
         <v>2018</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I57" s="56" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="9">
         <v>57</v>
       </c>
@@ -11120,13 +11112,13 @@
         <v>2018</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>281</v>
+        <v>679</v>
       </c>
       <c r="I58" s="56" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="9">
         <v>58</v>
       </c>
@@ -11149,13 +11141,13 @@
         <v>1915</v>
       </c>
       <c r="H59" s="56" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="I59" s="56" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="9">
         <v>59</v>
       </c>
@@ -11178,13 +11170,13 @@
         <v>1967</v>
       </c>
       <c r="H60" s="56" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I60" s="56" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="9">
         <v>60</v>
       </c>
@@ -11207,13 +11199,13 @@
         <v>1968</v>
       </c>
       <c r="H61" s="56" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="I61" s="56" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="9">
         <v>61</v>
       </c>
@@ -11236,13 +11228,13 @@
         <v>1974</v>
       </c>
       <c r="H62" s="56" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I62" s="56" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="9">
         <v>62</v>
       </c>
@@ -11265,13 +11257,13 @@
         <v>1990</v>
       </c>
       <c r="H63" s="56" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="I63" s="56" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="9">
         <v>63</v>
       </c>
@@ -11294,13 +11286,13 @@
         <v>2007</v>
       </c>
       <c r="H64" s="56" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="I64" s="56" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="9">
         <v>64</v>
       </c>
@@ -11323,13 +11315,13 @@
         <v>2008</v>
       </c>
       <c r="H65" s="9" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I65" s="56" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="9">
         <v>65</v>
       </c>
@@ -11352,13 +11344,13 @@
         <v>2008</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I66" s="56" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="9">
         <v>66</v>
       </c>
@@ -11381,13 +11373,13 @@
         <v>2008</v>
       </c>
       <c r="H67" s="56" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I67" s="56" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="9">
         <v>67</v>
       </c>
@@ -11410,13 +11402,13 @@
         <v>2011</v>
       </c>
       <c r="H68" s="56" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="I68" s="56" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="9">
         <v>68</v>
       </c>
@@ -11439,13 +11431,13 @@
         <v>2011</v>
       </c>
       <c r="H69" s="56" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I69" s="56" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="9">
         <v>69</v>
       </c>
@@ -11468,13 +11460,13 @@
         <v>2017</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I70" s="56" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="9">
         <v>70</v>
       </c>
@@ -11497,13 +11489,13 @@
         <v>2018</v>
       </c>
       <c r="H71" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I71" s="56" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="9">
         <v>71</v>
       </c>
@@ -11526,13 +11518,13 @@
         <v>2018</v>
       </c>
       <c r="H72" s="56" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I72" s="56" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="9">
         <v>72</v>
       </c>
@@ -11549,19 +11541,19 @@
         <v>19837</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G73" s="4">
         <v>2019</v>
       </c>
       <c r="H73" s="9" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I73" s="56" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="9">
         <v>73</v>
       </c>
@@ -11584,13 +11576,13 @@
         <v>2020</v>
       </c>
       <c r="H74" s="56" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I74" s="56" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="9">
         <v>74</v>
       </c>
@@ -11601,25 +11593,25 @@
         <v>35</v>
       </c>
       <c r="D75" s="20" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E75" s="75">
         <v>16048</v>
       </c>
       <c r="F75" s="46" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G75" s="24">
         <v>1989</v>
       </c>
       <c r="H75" s="20" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="I75" s="56" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="9">
         <v>75</v>
       </c>
@@ -11630,25 +11622,25 @@
         <v>35</v>
       </c>
       <c r="D76" s="20" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E76" s="75">
         <v>17677</v>
       </c>
       <c r="F76" s="46" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G76" s="24">
         <v>2003</v>
       </c>
       <c r="H76" s="20" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="I76" s="56" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="9">
         <v>76</v>
       </c>
@@ -11659,25 +11651,25 @@
         <v>35</v>
       </c>
       <c r="D77" s="20" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E77" s="75">
         <v>17817</v>
       </c>
       <c r="F77" s="46" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G77" s="24">
         <v>2004</v>
       </c>
       <c r="H77" s="20" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="I77" s="56" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="9">
         <v>77</v>
       </c>
@@ -11688,25 +11680,25 @@
         <v>35</v>
       </c>
       <c r="D78" s="20" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E78" s="74">
         <v>18046</v>
       </c>
       <c r="F78" s="46" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G78" s="24">
         <v>2006</v>
       </c>
       <c r="H78" s="20" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="I78" s="56" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="9">
         <v>78</v>
       </c>
@@ -11717,25 +11709,25 @@
         <v>35</v>
       </c>
       <c r="D79" s="20" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E79" s="75" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="F79" s="46" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G79" s="24">
         <v>2006</v>
       </c>
       <c r="H79" s="20" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="I79" s="56" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="9">
         <v>79</v>
       </c>
@@ -11746,25 +11738,25 @@
         <v>35</v>
       </c>
       <c r="D80" s="20" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E80" s="75">
         <v>18315</v>
       </c>
       <c r="F80" s="46" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G80" s="24">
         <v>2008</v>
       </c>
       <c r="H80" s="20" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I80" s="56" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="9">
         <v>80</v>
       </c>
@@ -11775,10 +11767,10 @@
         <v>35</v>
       </c>
       <c r="D81" s="20" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E81" s="75" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="F81" s="46" t="s">
         <v>87</v>
@@ -11787,13 +11779,13 @@
         <v>2008</v>
       </c>
       <c r="H81" s="20" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="I81" s="56" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="9">
         <v>81</v>
       </c>
@@ -11804,25 +11796,25 @@
         <v>35</v>
       </c>
       <c r="D82" s="20" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E82" s="75">
         <v>19122</v>
       </c>
       <c r="F82" s="46" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G82" s="24">
         <v>2013</v>
       </c>
       <c r="H82" s="20" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="I82" s="56" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="9">
         <v>82</v>
       </c>
@@ -11833,25 +11825,25 @@
         <v>35</v>
       </c>
       <c r="D83" s="20" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E83" s="75">
         <v>19643</v>
       </c>
       <c r="F83" s="46" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G83" s="24">
         <v>2018</v>
       </c>
       <c r="H83" s="20" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="I83" s="56" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="9">
         <v>83</v>
       </c>
@@ -11862,25 +11854,25 @@
         <v>35</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E84" s="75" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="F84" s="46" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G84" s="57">
         <v>1980</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="I84" s="56" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="9">
         <v>84</v>
       </c>
@@ -11891,25 +11883,25 @@
         <v>35</v>
       </c>
       <c r="D85" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="E85" s="75" t="s">
+        <v>664</v>
+      </c>
+      <c r="F85" s="46" t="s">
         <v>305</v>
-      </c>
-      <c r="E85" s="75" t="s">
-        <v>670</v>
-      </c>
-      <c r="F85" s="46" t="s">
-        <v>308</v>
       </c>
       <c r="G85" s="57">
         <v>1990</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="I85" s="56" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="9">
         <v>85</v>
       </c>
@@ -11920,25 +11912,25 @@
         <v>35</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E86" s="75" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="F86" s="46" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G86" s="57">
         <v>1995</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="I86" s="56" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="9">
         <v>86</v>
       </c>
@@ -11949,25 +11941,25 @@
         <v>35</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E87" s="75">
         <v>16713</v>
       </c>
       <c r="F87" s="46" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G87" s="57">
         <v>1995</v>
       </c>
       <c r="H87" s="56" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="I87" s="56" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="9">
         <v>87</v>
       </c>
@@ -11978,25 +11970,25 @@
         <v>35</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E88" s="75" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="F88" s="46" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G88" s="57">
         <v>1999</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="I88" s="56" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="9">
         <v>88</v>
       </c>
@@ -12007,25 +11999,25 @@
         <v>35</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E89" s="75" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="F89" s="46" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G89" s="57">
         <v>2000</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="I89" s="56" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="9">
         <v>89</v>
       </c>
@@ -12036,25 +12028,25 @@
         <v>35</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E90" s="75">
         <v>17292</v>
       </c>
       <c r="F90" s="46" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G90" s="24">
         <v>2001</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="I90" s="56" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="9">
         <v>90</v>
       </c>
@@ -12065,25 +12057,25 @@
         <v>35</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E91" s="75">
         <v>17386</v>
       </c>
       <c r="F91" s="46" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G91" s="57">
         <v>2001</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="I91" s="56" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="9">
         <v>91</v>
       </c>
@@ -12094,25 +12086,25 @@
         <v>35</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E92" s="75" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="F92" s="46" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G92" s="57">
         <v>2002</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="I92" s="56" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="9">
         <v>92</v>
       </c>
@@ -12123,25 +12115,25 @@
         <v>35</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E93" s="75" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="F93" s="46" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G93" s="57">
         <v>2004</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="I93" s="56" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="9">
         <v>93</v>
       </c>
@@ -12152,25 +12144,25 @@
         <v>35</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E94" s="75">
         <v>17930</v>
       </c>
       <c r="F94" s="46" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G94" s="57">
         <v>2005</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="I94" s="56" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="9">
         <v>94</v>
       </c>
@@ -12181,25 +12173,25 @@
         <v>35</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E95" s="75" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="F95" s="46" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G95" s="57">
         <v>2006</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="I95" s="56" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="9">
         <v>95</v>
       </c>
@@ -12210,25 +12202,25 @@
         <v>35</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E96" s="75" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="F96" s="46" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G96" s="24">
         <v>2007</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="I96" s="56" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="9">
         <v>96</v>
       </c>
@@ -12239,25 +12231,25 @@
         <v>35</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E97" s="75">
         <v>18246</v>
       </c>
       <c r="F97" s="46" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G97" s="24">
         <v>2007</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="I97" s="56" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="9">
         <v>97</v>
       </c>
@@ -12268,25 +12260,25 @@
         <v>35</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E98" s="75">
         <v>18395</v>
       </c>
       <c r="F98" s="46" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G98" s="24">
         <v>2008</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="I98" s="56" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="9">
         <v>98</v>
       </c>
@@ -12297,25 +12289,25 @@
         <v>35</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E99" s="75">
         <v>18426</v>
       </c>
       <c r="F99" s="46" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G99" s="57">
         <v>2008</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="I99" s="56" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="9">
         <v>99</v>
       </c>
@@ -12326,25 +12318,25 @@
         <v>35</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E100" s="75" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="F100" s="46" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G100" s="24">
         <v>2008</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="I100" s="56" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="9">
         <v>100</v>
       </c>
@@ -12355,25 +12347,25 @@
         <v>35</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E101" s="75">
         <v>18437</v>
       </c>
       <c r="F101" s="46" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G101" s="57">
         <v>2009</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="I101" s="56" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="9">
         <v>101</v>
       </c>
@@ -12384,25 +12376,25 @@
         <v>35</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E102" s="75" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="F102" s="46" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G102" s="57">
         <v>2009</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="I102" s="56" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="9">
         <v>102</v>
       </c>
@@ -12413,25 +12405,25 @@
         <v>35</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E103" s="75">
         <v>18850</v>
       </c>
       <c r="F103" s="46" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G103" s="57">
         <v>2011</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="I103" s="56" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="9">
         <v>103</v>
       </c>
@@ -12442,25 +12434,25 @@
         <v>35</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E104" s="75">
         <v>18987</v>
       </c>
       <c r="F104" s="46" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G104" s="57">
         <v>2012</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="I104" s="56" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="9">
         <v>104</v>
       </c>
@@ -12471,25 +12463,25 @@
         <v>35</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E105" s="75" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="F105" s="46" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G105" s="57">
         <v>2015</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="I105" s="56" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="9">
         <v>105</v>
       </c>
@@ -12500,25 +12492,25 @@
         <v>35</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E106" s="75">
         <v>19161</v>
       </c>
       <c r="F106" s="46" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G106" s="57">
         <v>2013</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="I106" s="56" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="9">
         <v>106</v>
       </c>
@@ -12529,25 +12521,25 @@
         <v>35</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E107" s="75">
         <v>19167</v>
       </c>
       <c r="F107" s="46" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G107" s="57">
         <v>2015</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="I107" s="56" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="9">
         <v>107</v>
       </c>
@@ -12558,25 +12550,25 @@
         <v>35</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E108" s="75" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="F108" s="46" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G108" s="57">
         <v>2015</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="I108" s="56" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="9">
         <v>108</v>
       </c>
@@ -12587,25 +12579,25 @@
         <v>35</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E109" s="75">
         <v>19530</v>
       </c>
       <c r="F109" s="46" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G109" s="24">
         <v>2017</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="I109" s="56" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="9">
         <v>109</v>
       </c>
@@ -12616,25 +12608,25 @@
         <v>35</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E110" s="75">
         <v>19538</v>
       </c>
       <c r="F110" s="46" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G110" s="57">
         <v>2017</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="I110" s="56" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="9">
         <v>110</v>
       </c>
@@ -12645,25 +12637,25 @@
         <v>35</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E111" s="75">
         <v>19580</v>
       </c>
       <c r="F111" s="46" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G111" s="57">
         <v>2017</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="I111" s="56" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="9">
         <v>111</v>
       </c>
@@ -12674,25 +12666,25 @@
         <v>35</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E112" s="75">
         <v>19643</v>
       </c>
       <c r="F112" s="46" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G112" s="57">
         <v>2018</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="I112" s="56" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="9">
         <v>112</v>
       </c>
@@ -12703,25 +12695,25 @@
         <v>35</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E113" s="75" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F113" s="46" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G113" s="24">
         <v>2019</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="I113" s="56" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="9">
         <v>113</v>
       </c>
@@ -12732,25 +12724,25 @@
         <v>35</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E114" s="75">
         <v>19837</v>
       </c>
       <c r="F114" s="46" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G114" s="24">
         <v>2019</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="I114" s="56" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="9">
         <v>114</v>
       </c>
@@ -12761,25 +12753,25 @@
         <v>35</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E115" s="75" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="F115" s="46" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G115" s="57">
         <v>2019</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="I115" s="56" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="9">
         <v>115</v>
       </c>
@@ -12790,25 +12782,25 @@
         <v>35</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E116" s="75">
         <v>9342</v>
       </c>
       <c r="F116" s="46" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G116" s="57">
         <v>1934</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="I116" s="56" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="9">
         <v>116</v>
       </c>
@@ -12819,25 +12811,25 @@
         <v>35</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E117" s="75">
         <v>17815</v>
       </c>
       <c r="F117" s="46" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G117" s="57">
         <v>2004</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="I117" s="56" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="9">
         <v>117</v>
       </c>
@@ -12848,25 +12840,25 @@
         <v>35</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E118" s="75">
         <v>17823</v>
       </c>
       <c r="F118" s="46" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G118" s="57">
         <v>2004</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="I118" s="56" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="9">
         <v>118</v>
       </c>
@@ -12877,25 +12869,25 @@
         <v>35</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E119" s="75">
         <v>18214</v>
       </c>
       <c r="F119" s="46" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G119" s="57">
         <v>2007</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="I119" s="56" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="9">
         <v>119</v>
       </c>
@@ -12906,25 +12898,25 @@
         <v>35</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E120" s="75" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="F120" s="46" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G120" s="24">
         <v>2007</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="I120" s="56" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="9">
         <v>120</v>
       </c>
@@ -12935,25 +12927,25 @@
         <v>35</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E121" s="75">
         <v>18426</v>
       </c>
       <c r="F121" s="46" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G121" s="57">
         <v>2008</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I121" s="56" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="9">
         <v>121</v>
       </c>
@@ -12964,25 +12956,25 @@
         <v>35</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E122" s="75">
         <v>18561</v>
       </c>
       <c r="F122" s="46" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G122" s="57">
         <v>2009</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="I122" s="56" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="9">
         <v>122</v>
       </c>
@@ -12993,25 +12985,25 @@
         <v>35</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E123" s="75">
         <v>18850</v>
       </c>
       <c r="F123" s="46" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="G123" s="57">
         <v>2011</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="I123" s="56" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="9">
         <v>123</v>
       </c>
@@ -13022,25 +13014,25 @@
         <v>35</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E124" s="75">
         <v>18590</v>
       </c>
       <c r="F124" s="46" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G124" s="57">
         <v>2011</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="I124" s="56" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="9">
         <v>124</v>
       </c>
@@ -13051,25 +13043,25 @@
         <v>35</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E125" s="75">
         <v>19353</v>
       </c>
       <c r="F125" s="46" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G125" s="57">
         <v>2015</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="I125" s="56" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="9">
         <v>125</v>
       </c>
@@ -13080,25 +13072,25 @@
         <v>35</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E126" s="75">
         <v>19367</v>
       </c>
       <c r="F126" s="46" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G126" s="57">
         <v>2015</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="I126" s="56" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="9">
         <v>126</v>
       </c>
@@ -13109,25 +13101,25 @@
         <v>35</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E127" s="75">
         <v>19580</v>
       </c>
       <c r="F127" s="46" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G127" s="57">
         <v>2017</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="I127" s="56" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="9">
         <v>127</v>
       </c>
@@ -13138,25 +13130,25 @@
         <v>35</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E128" s="75">
         <v>19643</v>
       </c>
       <c r="F128" s="46" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G128" s="57">
         <v>2018</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="I128" s="56" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="9">
         <v>128</v>
       </c>
@@ -13167,154 +13159,154 @@
         <v>35</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E129" s="75">
         <v>19889</v>
       </c>
       <c r="F129" s="46" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G129" s="57">
         <v>2020</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="I129" s="56" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://www.impo.com.uy/bases/leyes/1350-1877" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="E5" r:id="rId2" display="http://www.impo.com.uy/bases/leyes/12549-1958" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="E6" r:id="rId3" display="http://www.impo.com.uy/bases/leyes-originales/14101-1973" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="E7" r:id="rId4" display="https://www.impo.com.uy/bases/leyes/15739-1985" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="E13" r:id="rId5" display="https://www.impo.com.uy/bases/leyes/18437-2008" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="E15" r:id="rId6" display="https://www.impo.com.uy/bases/leyes/19043-2012/17" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="E18" r:id="rId7" display="18.889" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="E19" r:id="rId8" display="https://www.impo.com.uy/bases/leyes/9202-1934" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="E20" r:id="rId9" display="https://www.impo.com.uy/bases/leyes/16343-1992/7" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="E21" r:id="rId10" display="https://www.impo.com.uy/bases/leyes/17242-2000" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink ref="E22" r:id="rId11" display="https://www.impo.com.uy/bases/leyes/17386-2001" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
-    <hyperlink ref="E23" r:id="rId12" display="https://www.impo.com.uy/bases/leyes/18131-2007/4" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
-    <hyperlink ref="E25" r:id="rId13" display="https://www.impo.com.uy/bases/leyes/18211-2007/61" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
-    <hyperlink ref="E27" r:id="rId14" display="https://www.impo.com.uy/bases/leyes/18335-2008" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
-    <hyperlink ref="E26" r:id="rId15" display="https://www.impo.com.uy/bases/leyes/18256-2008" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
-    <hyperlink ref="E28" r:id="rId16" display="https://www.impo.com.uy/bases/leyes/18426-2008" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
-    <hyperlink ref="E29" r:id="rId17" display="https://www.impo.com.uy/bases/leyes/18473-2009" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
-    <hyperlink ref="E30" r:id="rId18" display="https://www.impo.com.uy/bases/leyes/18987-2012" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
-    <hyperlink ref="E31" r:id="rId19" display="https://www.impo.com.uy/bases/leyes/19167-2013" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
-    <hyperlink ref="E32" r:id="rId20" display="https://www.impo.com.uy/bases/leyes/19353-2015" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
-    <hyperlink ref="E33" r:id="rId21" display="https://www.impo.com.uy/bases/leyes/19529-2017" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
-    <hyperlink ref="E38" r:id="rId22" display="https://www.impo.com.uy/bases/leyes/16713-1995/29" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
-    <hyperlink ref="E42" r:id="rId23" display="https://www.impo.com.uy/bases/leyes/18065-2006/14" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
-    <hyperlink ref="E46" r:id="rId24" display="https://www.impo.com.uy/bases/leyes/18246-2007" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
-    <hyperlink ref="E47" r:id="rId25" display="https://www.impo.com.uy/bases/leyes/18345-2008" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
-    <hyperlink ref="E48" r:id="rId26" display="https://www.impo.com.uy/bases/leyes/18384-2008/3" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
-    <hyperlink ref="E51" r:id="rId27" display="https://www.impo.com.uy/bases/leyes/18508-2009/11" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
-    <hyperlink ref="E52" r:id="rId28" display="https://www.impo.com.uy/bases/leyes/18566-2009" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
-    <hyperlink ref="E55" r:id="rId29" display="https://www.impo.com.uy/bases/leyes/19161-2013" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
-    <hyperlink ref="E43" r:id="rId30" display="https://www.impo.com.uy/bases/leyes/18131-2007/4" xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
-    <hyperlink ref="E56" r:id="rId31" display="https://www.impo.com.uy/bases/leyes/19353-2015" xr:uid="{00000000-0004-0000-0200-00001E000000}"/>
-    <hyperlink ref="E59" r:id="rId32" display="http://www.impo.com.uy/bases/leyes/5343-1915" xr:uid="{00000000-0004-0000-0200-00001F000000}"/>
-    <hyperlink ref="E60" r:id="rId33" display="https://www.impo.com.uy/bases/leyes/13640-1967/477" xr:uid="{00000000-0004-0000-0200-000020000000}"/>
-    <hyperlink ref="E61" r:id="rId34" display="https://www.impo.com.uy/bases/leyes/13728-1968" xr:uid="{00000000-0004-0000-0200-000021000000}"/>
-    <hyperlink ref="E62" r:id="rId35" display="https://www.impo.com.uy/bases/decretos-Ley/14219-1974" xr:uid="{00000000-0004-0000-0200-000022000000}"/>
-    <hyperlink ref="E63" r:id="rId36" display="https://www.impo.com.uy/bases/leyes/16112-1990/3" xr:uid="{00000000-0004-0000-0200-000023000000}"/>
-    <hyperlink ref="E64" r:id="rId37" display="https://www.impo.com.uy/bases/leyes/18125-2007/36" xr:uid="{00000000-0004-0000-0200-000024000000}"/>
-    <hyperlink ref="E65" r:id="rId38" location=":~:text=%2D%20La%20presente%20ley%20establece%20el,Ejecutivo%20y%20los%20Gobiernos%20Departamentales." display="https://www.impo.com.uy/bases/leyes/18308-2008 - :~:text=%2D%20La%20presente%20ley%20establece%20el,Ejecutivo%20y%20los%20Gobiernos%20Departamentales." xr:uid="{00000000-0004-0000-0200-000025000000}"/>
-    <hyperlink ref="E66" r:id="rId39" display="https://www.impo.com.uy/bases/leyes/18340-2008/3" xr:uid="{00000000-0004-0000-0200-000026000000}"/>
-    <hyperlink ref="E67" r:id="rId40" display="https://www.impo.com.uy/bases/leyes/18407-2008" xr:uid="{00000000-0004-0000-0200-000027000000}"/>
-    <hyperlink ref="E68" r:id="rId41" display="https://www.impo.com.uy/bases/leyes/18795-2011/18" xr:uid="{00000000-0004-0000-0200-000028000000}"/>
-    <hyperlink ref="E69" r:id="rId42" display="https://www.impo.com.uy/bases/Leyes/18829-2011" xr:uid="{00000000-0004-0000-0200-000029000000}"/>
-    <hyperlink ref="E70" r:id="rId43" location=":~:text=Promover%20el%20uso%20eficiente%20y,localizadas%20en%20el%20%C3%A1mbito%20rural." display="https://www.impo.com.uy/bases/leyes/19525-2017/29 - :~:text=Promover%20el%20uso%20eficiente%20y,localizadas%20en%20el%20%C3%A1mbito%20rural." xr:uid="{00000000-0004-0000-0200-00002A000000}"/>
-    <hyperlink ref="E72" r:id="rId44" location=":~:text=%2D%20La%20presente%20ley%20tiene%20por,y%20degradaci%C3%B3n%20de%20inmuebles%20urbanos." display="http://www.impo.com.uy/bases/leyes-originales/19676-2018 - :~:text=%2D%20La%20presente%20ley%20tiene%20por,y%20degradaci%C3%B3n%20de%20inmuebles%20urbanos." xr:uid="{00000000-0004-0000-0200-00002B000000}"/>
-    <hyperlink ref="E71" r:id="rId45" display="https://www.impo.com.uy/bases/leyes/19661-2018" xr:uid="{00000000-0004-0000-0200-00002C000000}"/>
-    <hyperlink ref="E73" r:id="rId46" display="https://parlamento.gub.uy/documentosyleyes/leyes/ley/19837" xr:uid="{00000000-0004-0000-0200-00002D000000}"/>
-    <hyperlink ref="E74" r:id="rId47" display="https://www.impo.com.uy/bases/leyes/19889-2020" xr:uid="{00000000-0004-0000-0200-00002E000000}"/>
-    <hyperlink ref="E8" r:id="rId48" display="17.015" xr:uid="{00000000-0004-0000-0200-00002F000000}"/>
-    <hyperlink ref="E17" r:id="rId49" display="19.188" xr:uid="{00000000-0004-0000-0200-000030000000}"/>
-    <hyperlink ref="E10" r:id="rId50" display="https://www.impo.com.uy/bases/codigo-ninez-adolescencia/17823-2004" xr:uid="{00000000-0004-0000-0200-000031000000}"/>
-    <hyperlink ref="E11" r:id="rId51" display="https://www.impo.com.uy/bases/leyes/18213-2007" xr:uid="{00000000-0004-0000-0200-000032000000}"/>
-    <hyperlink ref="E9" r:id="rId52" display="https://www.impo.com.uy/bases/leyes/17378-2001" xr:uid="{00000000-0004-0000-0200-000033000000}"/>
-    <hyperlink ref="E57" r:id="rId53" display="https://www.impo.com.uy/bases/leyes/19684-2018" xr:uid="{00000000-0004-0000-0200-000034000000}"/>
-    <hyperlink ref="E41" r:id="rId54" display="https://www.impo.com.uy/bases/leyes/18033-2006" xr:uid="{00000000-0004-0000-0200-000035000000}"/>
-    <hyperlink ref="E54" r:id="rId55" display="https://www.impo.com.uy/bases/leyes/19039-2012" xr:uid="{00000000-0004-0000-0200-000036000000}"/>
-    <hyperlink ref="E53" r:id="rId56" display="18.850" xr:uid="{00000000-0004-0000-0200-000037000000}"/>
-    <hyperlink ref="E45" r:id="rId57" display="https://www.impo.com.uy/bases/leyes/18241-2007" xr:uid="{00000000-0004-0000-0200-000038000000}"/>
-    <hyperlink ref="E50" r:id="rId58" display="https://www.impo.com.uy/bases/leyes/18405-2008" xr:uid="{00000000-0004-0000-0200-000039000000}"/>
-    <hyperlink ref="E58" r:id="rId59" display="https://www.impo.com.uy/bases/leyes/19695-2018" xr:uid="{00000000-0004-0000-0200-00003A000000}"/>
-    <hyperlink ref="E49" r:id="rId60" display="https://www.impo.com.uy/bases/leyes/18396-2008" xr:uid="{00000000-0004-0000-0200-00003B000000}"/>
-    <hyperlink ref="E40" r:id="rId61" display="https://www.impo.com.uy/bases/leyes/17738-2004" xr:uid="{00000000-0004-0000-0200-00003C000000}"/>
-    <hyperlink ref="E39" r:id="rId62" display="https://www.impo.com.uy/bases/leyes/17437-2001" xr:uid="{00000000-0004-0000-0200-00003D000000}"/>
-    <hyperlink ref="E36" r:id="rId63" display="https://www.impo.com.uy/bases/leyes/10449-1943" xr:uid="{00000000-0004-0000-0200-00003E000000}"/>
-    <hyperlink ref="E3" r:id="rId64" display="https://www.impo.com.uy/bases/leyes/1825-1885" xr:uid="{00000000-0004-0000-0200-00003F000000}"/>
-    <hyperlink ref="E4" r:id="rId65" display="3.441" xr:uid="{00000000-0004-0000-0200-000040000000}"/>
-    <hyperlink ref="E35" r:id="rId66" display="https://www.impo.com.uy/bases/leyes/6874-1919" xr:uid="{00000000-0004-0000-0200-000041000000}"/>
-    <hyperlink ref="E34" r:id="rId67" display="https://www.impo.com.uy/bases/leyes/2436-1896" xr:uid="{00000000-0004-0000-0200-000042000000}"/>
-    <hyperlink ref="E37" r:id="rId68" display="https://www.impo.com.uy/bases/leyes/12138-1954" xr:uid="{00000000-0004-0000-0200-000043000000}"/>
-    <hyperlink ref="E44" r:id="rId69" display="https://www.impo.com.uy/bases/leyes/18227-2007" xr:uid="{00000000-0004-0000-0200-000044000000}"/>
-    <hyperlink ref="E24" r:id="rId70" display="18.161" xr:uid="{00000000-0004-0000-0200-000045000000}"/>
-    <hyperlink ref="E14" r:id="rId71" display="18.651" xr:uid="{00000000-0004-0000-0200-000046000000}"/>
-    <hyperlink ref="E16" r:id="rId72" display="19.122" xr:uid="{00000000-0004-0000-0200-000047000000}"/>
-    <hyperlink ref="E12" r:id="rId73" display="18.250" xr:uid="{00000000-0004-0000-0200-000048000000}"/>
-    <hyperlink ref="E82" r:id="rId74" display="http://www.impo.com.uy/bases/leyes/19122-2013" xr:uid="{00000000-0004-0000-0200-000049000000}"/>
-    <hyperlink ref="E81" r:id="rId75" display="18.437 " xr:uid="{00000000-0004-0000-0200-00004A000000}"/>
-    <hyperlink ref="E80" r:id="rId76" display="http://www.impo.com.uy/bases/leyes/18315-2008" xr:uid="{00000000-0004-0000-0200-00004B000000}"/>
-    <hyperlink ref="E79" r:id="rId77" display="18.059 " xr:uid="{00000000-0004-0000-0200-00004C000000}"/>
-    <hyperlink ref="E78" r:id="rId78" display="http://www.impo.com.uy/bases/leyes/18046-2006" xr:uid="{00000000-0004-0000-0200-00004D000000}"/>
-    <hyperlink ref="E77" r:id="rId79" display="http://www.impo.com.uy/bases/leyes/17817-2004" xr:uid="{00000000-0004-0000-0200-00004E000000}"/>
-    <hyperlink ref="E76" r:id="rId80" display="http://www.impo.com.uy/bases/leyes/17677-2003" xr:uid="{00000000-0004-0000-0200-00004F000000}"/>
-    <hyperlink ref="E75" r:id="rId81" display="http://www.impo.com.uy/bases/leyes/16048-1989" xr:uid="{00000000-0004-0000-0200-000050000000}"/>
-    <hyperlink ref="E116" r:id="rId82" display="https://www.impo.com.uy/bases/leyes/9342-1934" xr:uid="{00000000-0004-0000-0200-000051000000}"/>
-    <hyperlink ref="E117" r:id="rId83" display="https://www.impo.com.uy/bases/leyes/17815-2004" xr:uid="{00000000-0004-0000-0200-000052000000}"/>
-    <hyperlink ref="E118" r:id="rId84" display="https://www.impo.com.uy/bases/codigo-ninez-adolescencia/17823-2004" xr:uid="{00000000-0004-0000-0200-000053000000}"/>
-    <hyperlink ref="E119" r:id="rId85" display="https://www.impo.com.uy/bases/leyes/18214-2007" xr:uid="{00000000-0004-0000-0200-000054000000}"/>
-    <hyperlink ref="E121" r:id="rId86" display="https://www.impo.com.uy/bases/leyes/18426-2008" xr:uid="{00000000-0004-0000-0200-000055000000}"/>
-    <hyperlink ref="E122" r:id="rId87" display="https://www.impo.com.uy/bases/leyes/18561-2009" xr:uid="{00000000-0004-0000-0200-000056000000}"/>
-    <hyperlink ref="E123" r:id="rId88" display="18.850" xr:uid="{00000000-0004-0000-0200-000057000000}"/>
-    <hyperlink ref="E124" r:id="rId89" display="18.590" xr:uid="{00000000-0004-0000-0200-000058000000}"/>
-    <hyperlink ref="E125" r:id="rId90" display="https://www.impo.com.uy/bases/leyes/19353-2015" xr:uid="{00000000-0004-0000-0200-000059000000}"/>
-    <hyperlink ref="E127" r:id="rId91" display="19.580" xr:uid="{00000000-0004-0000-0200-00005A000000}"/>
-    <hyperlink ref="E128" r:id="rId92" display="http://www.impo.com.uy/bases/leyes/19643-2018" xr:uid="{00000000-0004-0000-0200-00005B000000}"/>
-    <hyperlink ref="E84" r:id="rId93" display="15.084 " xr:uid="{00000000-0004-0000-0200-00005C000000}"/>
-    <hyperlink ref="E85" r:id="rId94" display="16.104 " xr:uid="{00000000-0004-0000-0200-00005D000000}"/>
-    <hyperlink ref="E86" r:id="rId95" display="16.707 " xr:uid="{00000000-0004-0000-0200-00005E000000}"/>
-    <hyperlink ref="E87" r:id="rId96" display="16.713" xr:uid="{00000000-0004-0000-0200-00005F000000}"/>
-    <hyperlink ref="E88" r:id="rId97" display="17.215 " xr:uid="{00000000-0004-0000-0200-000060000000}"/>
-    <hyperlink ref="E89" r:id="rId98" display="17.242 " xr:uid="{00000000-0004-0000-0200-000061000000}"/>
-    <hyperlink ref="E91" r:id="rId99" display="https://www.impo.com.uy/bases/leyes/17386-2001" xr:uid="{00000000-0004-0000-0200-000062000000}"/>
-    <hyperlink ref="E90" r:id="rId100" display="https://www.impo.com.uy/bases/leyes/17292-2001" xr:uid="{00000000-0004-0000-0200-000063000000}"/>
-    <hyperlink ref="E92" r:id="rId101" display="17.514 " xr:uid="{00000000-0004-0000-0200-000064000000}"/>
-    <hyperlink ref="E93" r:id="rId102" display="17.815 " xr:uid="{00000000-0004-0000-0200-000065000000}"/>
-    <hyperlink ref="E94" r:id="rId103" display="17.930" xr:uid="{00000000-0004-0000-0200-000066000000}"/>
-    <hyperlink ref="E95" r:id="rId104" display="18.065 " xr:uid="{00000000-0004-0000-0200-000067000000}"/>
-    <hyperlink ref="E99" r:id="rId105" display="https://www.impo.com.uy/bases/leyes/18426-2008" xr:uid="{00000000-0004-0000-0200-000068000000}"/>
-    <hyperlink ref="E96" r:id="rId106" display="18.227 " xr:uid="{00000000-0004-0000-0200-000069000000}"/>
-    <hyperlink ref="E97" r:id="rId107" display="https://www.impo.com.uy/bases/leyes/18246-2007" xr:uid="{00000000-0004-0000-0200-00006A000000}"/>
-    <hyperlink ref="E98" r:id="rId108" display="https://www.impo.com.uy/bases/leyes/18395-2008" xr:uid="{00000000-0004-0000-0200-00006B000000}"/>
-    <hyperlink ref="E100" r:id="rId109" display="18.436 " xr:uid="{00000000-0004-0000-0200-00006C000000}"/>
-    <hyperlink ref="E102" r:id="rId110" display="18.561 " xr:uid="{00000000-0004-0000-0200-00006D000000}"/>
-    <hyperlink ref="E101" r:id="rId111" display="https://www.impo.com.uy/bases/leyes/18437-2009" xr:uid="{00000000-0004-0000-0200-00006E000000}"/>
-    <hyperlink ref="E103" r:id="rId112" display="18.850" xr:uid="{00000000-0004-0000-0200-00006F000000}"/>
-    <hyperlink ref="E104" r:id="rId113" display="https://www.impo.com.uy/bases/leyes/18987-2012" xr:uid="{00000000-0004-0000-0200-000070000000}"/>
-    <hyperlink ref="E106" r:id="rId114" display="https://www.impo.com.uy/bases/leyes/19161-2013" xr:uid="{00000000-0004-0000-0200-000071000000}"/>
-    <hyperlink ref="E108" r:id="rId115" display="19.353 " xr:uid="{00000000-0004-0000-0200-000072000000}"/>
-    <hyperlink ref="E105" r:id="rId116" display="19.121 " xr:uid="{00000000-0004-0000-0200-000073000000}"/>
-    <hyperlink ref="E107" r:id="rId117" display="19.167" xr:uid="{00000000-0004-0000-0200-000074000000}"/>
-    <hyperlink ref="E110" r:id="rId118" display="https://www.impo.com.uy/bases/leyes/19538-2017" xr:uid="{00000000-0004-0000-0200-000075000000}"/>
-    <hyperlink ref="E109" r:id="rId119" display="19.530" xr:uid="{00000000-0004-0000-0200-000076000000}"/>
-    <hyperlink ref="E111" r:id="rId120" display="19.580" xr:uid="{00000000-0004-0000-0200-000077000000}"/>
-    <hyperlink ref="E112" r:id="rId121" display="https://www.impo.com.uy/bases/leyes/19643-2018" xr:uid="{00000000-0004-0000-0200-000078000000}"/>
-    <hyperlink ref="E115" r:id="rId122" display="19.846 " xr:uid="{00000000-0004-0000-0200-000079000000}"/>
-    <hyperlink ref="E114" r:id="rId123" display="19.837" xr:uid="{00000000-0004-0000-0200-00007A000000}"/>
-    <hyperlink ref="E113" r:id="rId124" display="19.781 " xr:uid="{00000000-0004-0000-0200-00007B000000}"/>
-    <hyperlink ref="E83" r:id="rId125" display="http://www.impo.com.uy/bases/leyes/19643-2018" xr:uid="{00000000-0004-0000-0200-00007C000000}"/>
-    <hyperlink ref="E120" r:id="rId126" display="18.227 " xr:uid="{00000000-0004-0000-0200-00007D000000}"/>
-    <hyperlink ref="E129" r:id="rId127" display="http://www.impo.com.uy/bases/leyes/19889-2020" xr:uid="{00000000-0004-0000-0200-00007E000000}"/>
-    <hyperlink ref="E126" r:id="rId128" display="https://www.impo.com.uy/bases/leyes/19367-2015" xr:uid="{00000000-0004-0000-0200-00007F000000}"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://www.impo.com.uy/bases/leyes/1350-1877"/>
+    <hyperlink ref="E5" r:id="rId2" display="http://www.impo.com.uy/bases/leyes/12549-1958"/>
+    <hyperlink ref="E6" r:id="rId3" display="http://www.impo.com.uy/bases/leyes-originales/14101-1973"/>
+    <hyperlink ref="E7" r:id="rId4" display="https://www.impo.com.uy/bases/leyes/15739-1985"/>
+    <hyperlink ref="E13" r:id="rId5" display="https://www.impo.com.uy/bases/leyes/18437-2008"/>
+    <hyperlink ref="E15" r:id="rId6" display="https://www.impo.com.uy/bases/leyes/19043-2012/17"/>
+    <hyperlink ref="E18" r:id="rId7" display="18.889"/>
+    <hyperlink ref="E19" r:id="rId8" display="https://www.impo.com.uy/bases/leyes/9202-1934"/>
+    <hyperlink ref="E20" r:id="rId9" display="https://www.impo.com.uy/bases/leyes/16343-1992/7"/>
+    <hyperlink ref="E21" r:id="rId10" display="https://www.impo.com.uy/bases/leyes/17242-2000"/>
+    <hyperlink ref="E22" r:id="rId11" display="https://www.impo.com.uy/bases/leyes/17386-2001"/>
+    <hyperlink ref="E23" r:id="rId12" display="https://www.impo.com.uy/bases/leyes/18131-2007/4"/>
+    <hyperlink ref="E25" r:id="rId13" display="https://www.impo.com.uy/bases/leyes/18211-2007/61"/>
+    <hyperlink ref="E27" r:id="rId14" display="https://www.impo.com.uy/bases/leyes/18335-2008"/>
+    <hyperlink ref="E26" r:id="rId15" display="https://www.impo.com.uy/bases/leyes/18256-2008"/>
+    <hyperlink ref="E28" r:id="rId16" display="https://www.impo.com.uy/bases/leyes/18426-2008"/>
+    <hyperlink ref="E29" r:id="rId17" display="https://www.impo.com.uy/bases/leyes/18473-2009"/>
+    <hyperlink ref="E30" r:id="rId18" display="https://www.impo.com.uy/bases/leyes/18987-2012"/>
+    <hyperlink ref="E31" r:id="rId19" display="https://www.impo.com.uy/bases/leyes/19167-2013"/>
+    <hyperlink ref="E32" r:id="rId20" display="https://www.impo.com.uy/bases/leyes/19353-2015"/>
+    <hyperlink ref="E33" r:id="rId21" display="https://www.impo.com.uy/bases/leyes/19529-2017"/>
+    <hyperlink ref="E38" r:id="rId22" display="https://www.impo.com.uy/bases/leyes/16713-1995/29"/>
+    <hyperlink ref="E42" r:id="rId23" display="https://www.impo.com.uy/bases/leyes/18065-2006/14"/>
+    <hyperlink ref="E46" r:id="rId24" display="https://www.impo.com.uy/bases/leyes/18246-2007"/>
+    <hyperlink ref="E47" r:id="rId25" display="https://www.impo.com.uy/bases/leyes/18345-2008"/>
+    <hyperlink ref="E48" r:id="rId26" display="https://www.impo.com.uy/bases/leyes/18384-2008/3"/>
+    <hyperlink ref="E51" r:id="rId27" display="https://www.impo.com.uy/bases/leyes/18508-2009/11"/>
+    <hyperlink ref="E52" r:id="rId28" display="https://www.impo.com.uy/bases/leyes/18566-2009"/>
+    <hyperlink ref="E55" r:id="rId29" display="https://www.impo.com.uy/bases/leyes/19161-2013"/>
+    <hyperlink ref="E43" r:id="rId30" display="https://www.impo.com.uy/bases/leyes/18131-2007/4"/>
+    <hyperlink ref="E56" r:id="rId31" display="https://www.impo.com.uy/bases/leyes/19353-2015"/>
+    <hyperlink ref="E59" r:id="rId32" display="http://www.impo.com.uy/bases/leyes/5343-1915"/>
+    <hyperlink ref="E60" r:id="rId33" display="https://www.impo.com.uy/bases/leyes/13640-1967/477"/>
+    <hyperlink ref="E61" r:id="rId34" display="https://www.impo.com.uy/bases/leyes/13728-1968"/>
+    <hyperlink ref="E62" r:id="rId35" display="https://www.impo.com.uy/bases/decretos-Ley/14219-1974"/>
+    <hyperlink ref="E63" r:id="rId36" display="https://www.impo.com.uy/bases/leyes/16112-1990/3"/>
+    <hyperlink ref="E64" r:id="rId37" display="https://www.impo.com.uy/bases/leyes/18125-2007/36"/>
+    <hyperlink ref="E65" r:id="rId38" location=":~:text=%2D%20La%20presente%20ley%20establece%20el,Ejecutivo%20y%20los%20Gobiernos%20Departamentales." display="https://www.impo.com.uy/bases/leyes/18308-2008 - :~:text=%2D%20La%20presente%20ley%20establece%20el,Ejecutivo%20y%20los%20Gobiernos%20Departamentales."/>
+    <hyperlink ref="E66" r:id="rId39" display="https://www.impo.com.uy/bases/leyes/18340-2008/3"/>
+    <hyperlink ref="E67" r:id="rId40" display="https://www.impo.com.uy/bases/leyes/18407-2008"/>
+    <hyperlink ref="E68" r:id="rId41" display="https://www.impo.com.uy/bases/leyes/18795-2011/18"/>
+    <hyperlink ref="E69" r:id="rId42" display="https://www.impo.com.uy/bases/Leyes/18829-2011"/>
+    <hyperlink ref="E70" r:id="rId43" location=":~:text=Promover%20el%20uso%20eficiente%20y,localizadas%20en%20el%20%C3%A1mbito%20rural." display="https://www.impo.com.uy/bases/leyes/19525-2017/29 - :~:text=Promover%20el%20uso%20eficiente%20y,localizadas%20en%20el%20%C3%A1mbito%20rural."/>
+    <hyperlink ref="E72" r:id="rId44" location=":~:text=%2D%20La%20presente%20ley%20tiene%20por,y%20degradaci%C3%B3n%20de%20inmuebles%20urbanos." display="http://www.impo.com.uy/bases/leyes-originales/19676-2018 - :~:text=%2D%20La%20presente%20ley%20tiene%20por,y%20degradaci%C3%B3n%20de%20inmuebles%20urbanos."/>
+    <hyperlink ref="E71" r:id="rId45" display="https://www.impo.com.uy/bases/leyes/19661-2018"/>
+    <hyperlink ref="E73" r:id="rId46" display="https://www.impo.com.uy/bases/leyes/19837-2019"/>
+    <hyperlink ref="E74" r:id="rId47" display="https://www.impo.com.uy/bases/leyes/19889-2020"/>
+    <hyperlink ref="E8" r:id="rId48" display="17.015"/>
+    <hyperlink ref="E17" r:id="rId49" display="19.188"/>
+    <hyperlink ref="E10" r:id="rId50" display="https://www.impo.com.uy/bases/codigo-ninez-adolescencia/17823-2004"/>
+    <hyperlink ref="E11" r:id="rId51" display="https://www.impo.com.uy/bases/leyes/18213-2007"/>
+    <hyperlink ref="E9" r:id="rId52" display="https://www.impo.com.uy/bases/leyes/17378-2001"/>
+    <hyperlink ref="E57" r:id="rId53" display="https://www.impo.com.uy/bases/leyes/19684-2018"/>
+    <hyperlink ref="E41" r:id="rId54" display="https://www.impo.com.uy/bases/leyes/18033-2006"/>
+    <hyperlink ref="E54" r:id="rId55" display="https://www.impo.com.uy/bases/leyes/19039-2012"/>
+    <hyperlink ref="E53" r:id="rId56" display="18.850"/>
+    <hyperlink ref="E45" r:id="rId57" display="https://www.impo.com.uy/bases/leyes/18241-2007"/>
+    <hyperlink ref="E50" r:id="rId58" display="https://www.impo.com.uy/bases/leyes/18405-2008"/>
+    <hyperlink ref="E58" r:id="rId59" display="https://www.impo.com.uy/bases/leyes/19695-2018"/>
+    <hyperlink ref="E49" r:id="rId60" display="https://www.impo.com.uy/bases/leyes/18396-2008"/>
+    <hyperlink ref="E40" r:id="rId61" display="https://www.impo.com.uy/bases/leyes/17738-2004"/>
+    <hyperlink ref="E39" r:id="rId62" display="https://www.impo.com.uy/bases/leyes/17437-2001"/>
+    <hyperlink ref="E36" r:id="rId63" display="https://www.impo.com.uy/bases/leyes/10449-1943"/>
+    <hyperlink ref="E3" r:id="rId64" display="https://www.impo.com.uy/bases/leyes/1825-1885"/>
+    <hyperlink ref="E4" r:id="rId65" display="3.441"/>
+    <hyperlink ref="E35" r:id="rId66" display="https://www.impo.com.uy/bases/leyes/6874-1919"/>
+    <hyperlink ref="E34" r:id="rId67" display="https://www.impo.com.uy/bases/leyes/2436-1896"/>
+    <hyperlink ref="E37" r:id="rId68" display="https://www.impo.com.uy/bases/leyes/12138-1954"/>
+    <hyperlink ref="E44" r:id="rId69" display="https://www.impo.com.uy/bases/leyes/18227-2007"/>
+    <hyperlink ref="E24" r:id="rId70" display="18.161"/>
+    <hyperlink ref="E14" r:id="rId71" display="18.651"/>
+    <hyperlink ref="E16" r:id="rId72" display="19.122"/>
+    <hyperlink ref="E12" r:id="rId73" display="18.250"/>
+    <hyperlink ref="E82" r:id="rId74" display="http://www.impo.com.uy/bases/leyes/19122-2013"/>
+    <hyperlink ref="E81" r:id="rId75" display="18.437 "/>
+    <hyperlink ref="E80" r:id="rId76" display="http://www.impo.com.uy/bases/leyes/18315-2008"/>
+    <hyperlink ref="E79" r:id="rId77" display="18.059 "/>
+    <hyperlink ref="E78" r:id="rId78" display="http://www.impo.com.uy/bases/leyes/18046-2006"/>
+    <hyperlink ref="E77" r:id="rId79" display="http://www.impo.com.uy/bases/leyes/17817-2004"/>
+    <hyperlink ref="E76" r:id="rId80" display="http://www.impo.com.uy/bases/leyes/17677-2003"/>
+    <hyperlink ref="E75" r:id="rId81" display="http://www.impo.com.uy/bases/leyes/16048-1989"/>
+    <hyperlink ref="E116" r:id="rId82" display="https://www.impo.com.uy/bases/leyes/9342-1934"/>
+    <hyperlink ref="E117" r:id="rId83" display="https://www.impo.com.uy/bases/leyes/17815-2004"/>
+    <hyperlink ref="E118" r:id="rId84" display="https://www.impo.com.uy/bases/codigo-ninez-adolescencia/17823-2004"/>
+    <hyperlink ref="E119" r:id="rId85" display="https://www.impo.com.uy/bases/leyes/18214-2007"/>
+    <hyperlink ref="E121" r:id="rId86" display="https://www.impo.com.uy/bases/leyes/18426-2008"/>
+    <hyperlink ref="E122" r:id="rId87" display="https://www.impo.com.uy/bases/leyes/18561-2009"/>
+    <hyperlink ref="E123" r:id="rId88" display="18.850"/>
+    <hyperlink ref="E124" r:id="rId89" display="18.590"/>
+    <hyperlink ref="E125" r:id="rId90" display="https://www.impo.com.uy/bases/leyes/19353-2015"/>
+    <hyperlink ref="E127" r:id="rId91" display="19.580"/>
+    <hyperlink ref="E128" r:id="rId92" display="http://www.impo.com.uy/bases/leyes/19643-2018"/>
+    <hyperlink ref="E84" r:id="rId93" display="15.084 "/>
+    <hyperlink ref="E85" r:id="rId94" display="16.104 "/>
+    <hyperlink ref="E86" r:id="rId95" display="16.707 "/>
+    <hyperlink ref="E87" r:id="rId96" display="16.713"/>
+    <hyperlink ref="E88" r:id="rId97" display="17.215 "/>
+    <hyperlink ref="E89" r:id="rId98" display="17.242 "/>
+    <hyperlink ref="E91" r:id="rId99" display="https://www.impo.com.uy/bases/leyes/17386-2001"/>
+    <hyperlink ref="E90" r:id="rId100" display="https://www.impo.com.uy/bases/leyes/17292-2001"/>
+    <hyperlink ref="E92" r:id="rId101" display="17.514 "/>
+    <hyperlink ref="E93" r:id="rId102" display="17.815 "/>
+    <hyperlink ref="E94" r:id="rId103" display="17.930"/>
+    <hyperlink ref="E95" r:id="rId104" display="18.065 "/>
+    <hyperlink ref="E99" r:id="rId105" display="https://www.impo.com.uy/bases/leyes/18426-2008"/>
+    <hyperlink ref="E96" r:id="rId106" display="18.227 "/>
+    <hyperlink ref="E97" r:id="rId107" display="https://www.impo.com.uy/bases/leyes/18246-2007"/>
+    <hyperlink ref="E98" r:id="rId108" display="https://www.impo.com.uy/bases/leyes/18395-2008"/>
+    <hyperlink ref="E100" r:id="rId109" display="18.436 "/>
+    <hyperlink ref="E102" r:id="rId110" display="18.561 "/>
+    <hyperlink ref="E101" r:id="rId111" display="https://www.impo.com.uy/bases/leyes/18437-2009"/>
+    <hyperlink ref="E103" r:id="rId112" display="18.850"/>
+    <hyperlink ref="E104" r:id="rId113" display="https://www.impo.com.uy/bases/leyes/18987-2012"/>
+    <hyperlink ref="E106" r:id="rId114" display="https://www.impo.com.uy/bases/leyes/19161-2013"/>
+    <hyperlink ref="E108" r:id="rId115" display="19.353 "/>
+    <hyperlink ref="E105" r:id="rId116" display="19.121 "/>
+    <hyperlink ref="E107" r:id="rId117" display="19.167"/>
+    <hyperlink ref="E110" r:id="rId118" display="https://www.impo.com.uy/bases/leyes/19538-2017"/>
+    <hyperlink ref="E109" r:id="rId119" display="19.530"/>
+    <hyperlink ref="E111" r:id="rId120" display="19.580"/>
+    <hyperlink ref="E112" r:id="rId121" display="https://www.impo.com.uy/bases/leyes/19643-2018"/>
+    <hyperlink ref="E115" r:id="rId122" display="19.846 "/>
+    <hyperlink ref="E114" r:id="rId123" display="19.837"/>
+    <hyperlink ref="E113" r:id="rId124" display="19.781 "/>
+    <hyperlink ref="E83" r:id="rId125" display="http://www.impo.com.uy/bases/leyes/19643-2018"/>
+    <hyperlink ref="E120" r:id="rId126" display="18.227 "/>
+    <hyperlink ref="E129" r:id="rId127" display="http://www.impo.com.uy/bases/leyes/19889-2020"/>
+    <hyperlink ref="E126" r:id="rId128" display="https://www.impo.com.uy/bases/leyes/19367-2015"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId129"/>
@@ -13322,58 +13314,58 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.5546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" style="61" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="61" customWidth="1"/>
-    <col min="3" max="3" width="35.33203125" style="61" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="11.44140625" style="61"/>
+    <col min="3" max="3" width="35.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="61"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="70" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="B1" s="64"/>
       <c r="C1" s="70" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="63" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="B3" s="65"/>
       <c r="C3" s="63" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="63" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="B4" s="65"/>
       <c r="C4" s="63" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="63" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="65"/>
       <c r="C5" s="63" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="63" t="s">
         <v>3</v>
       </c>
@@ -13382,34 +13374,34 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="63" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="B7" s="65"/>
       <c r="C7" s="63" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="63" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="B8" s="65"/>
       <c r="C8" s="63" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="63" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="B9" s="65"/>
       <c r="C9" s="63" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="63" t="s">
         <v>4</v>
       </c>
@@ -13418,16 +13410,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="63" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="B11" s="65"/>
       <c r="C11" s="63" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="63" t="s">
         <v>5</v>
       </c>
@@ -13436,40 +13428,40 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="63" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="B13" s="65"/>
       <c r="C13" s="63" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="63" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="63" t="s">
-        <v>662</v>
-      </c>
       <c r="C15" s="63" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="63" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="C16" s="63" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="63" t="s">
         <v>0</v>
       </c>
       <c r="C17" s="63" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="63" t="s">
         <v>3</v>
       </c>
@@ -13477,47 +13469,47 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="63" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="C19" s="63" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="63" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="C20" s="63" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="63" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C21" s="63" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="63" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="C22" s="63" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="63" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="C25" s="63" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="69" t="s">
         <v>2</v>
       </c>
@@ -13525,7 +13517,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="63" t="s">
         <v>5</v>
       </c>
@@ -13533,44 +13525,44 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="63" t="s">
         <v>0</v>
       </c>
       <c r="C28" s="63" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="63" t="s">
+        <v>645</v>
+      </c>
+      <c r="C29" s="63" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="63" t="s">
+        <v>646</v>
+      </c>
+      <c r="C30" s="63" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="63" t="s">
+        <v>649</v>
+      </c>
+      <c r="C31" s="63" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="63" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="63" t="s">
-        <v>651</v>
-      </c>
-      <c r="C29" s="63" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="63" t="s">
-        <v>652</v>
-      </c>
-      <c r="C30" s="63" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="63" t="s">
-        <v>655</v>
-      </c>
-      <c r="C31" s="63" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="63" t="s">
-        <v>656</v>
-      </c>
       <c r="C32" s="63" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
     </row>
   </sheetData>
